--- a/python_module/PosFeature/school_models_score.xlsx
+++ b/python_module/PosFeature/school_models_score.xlsx
@@ -22,20 +22,21 @@
     <sheet name="M" sheetId="13" r:id="rId13"/>
     <sheet name="T" sheetId="14" r:id="rId14"/>
     <sheet name="X" sheetId="15" r:id="rId15"/>
-    <sheet name="I" sheetId="16" r:id="rId16"/>
-    <sheet name="Nu" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="7">
+  <si>
+    <t>LogisticRegression</t>
+  </si>
+  <si>
+    <t>KNN</t>
+  </si>
   <si>
     <t>SVC</t>
-  </si>
-  <si>
-    <t>LinearSVC</t>
   </si>
   <si>
     <t>GaussianNB</t>
@@ -44,10 +45,7 @@
     <t>MultinomialNB</t>
   </si>
   <si>
-    <t>ComplementNB</t>
-  </si>
-  <si>
-    <t>BernoulliNB</t>
+    <t>RandomForest</t>
   </si>
   <si>
     <t>DecisionTreeClassifier</t>
@@ -408,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -442,25 +440,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.631578947368421</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C2">
         <v>0.7368421052631579</v>
       </c>
       <c r="D2">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="E2">
         <v>0.7105263157894737</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.7368421052631579</v>
       </c>
-      <c r="F2">
-        <v>0.7105263157894737</v>
-      </c>
       <c r="G2">
-        <v>0.5526315789473685</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="H2">
-        <v>0.5789473684210527</v>
+        <v>0.631578947368421</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -468,25 +466,25 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="C3">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="D3">
         <v>0.7105263157894737</v>
       </c>
-      <c r="C3">
-        <v>0.7894736842105263</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.7368421052631579</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.6842105263157895</v>
       </c>
-      <c r="F3">
-        <v>0.7368421052631579</v>
-      </c>
       <c r="G3">
-        <v>0.5526315789473685</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="H3">
-        <v>0.6842105263157895</v>
+        <v>0.7105263157894737</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -494,25 +492,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7368421052631579</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C4">
         <v>0.7105263157894737</v>
       </c>
       <c r="D4">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="E4">
         <v>0.7631578947368421</v>
-      </c>
-      <c r="E4">
-        <v>0.7368421052631579</v>
       </c>
       <c r="F4">
         <v>0.7368421052631579</v>
       </c>
       <c r="G4">
-        <v>0.5526315789473685</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="H4">
-        <v>0.6578947368421053</v>
+        <v>0.7105263157894737</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -520,10 +518,10 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>0.6756756756756757</v>
+      </c>
+      <c r="C5">
         <v>0.7027027027027027</v>
-      </c>
-      <c r="C5">
-        <v>0.6216216216216216</v>
       </c>
       <c r="D5">
         <v>0.7027027027027027</v>
@@ -532,10 +530,10 @@
         <v>0.7027027027027027</v>
       </c>
       <c r="F5">
-        <v>0.5945945945945946</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="G5">
-        <v>0.5675675675675675</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="H5">
         <v>0.7297297297297297</v>
@@ -546,7 +544,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8918918918918919</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="C6">
         <v>0.7837837837837838</v>
@@ -555,16 +553,16 @@
         <v>0.8918918918918919</v>
       </c>
       <c r="E6">
+        <v>0.8918918918918919</v>
+      </c>
+      <c r="F6">
         <v>0.8378378378378378</v>
       </c>
-      <c r="F6">
-        <v>0.7837837837837838</v>
-      </c>
       <c r="G6">
-        <v>0.5675675675675675</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="H6">
-        <v>0.9459459459459459</v>
+        <v>0.8918918918918919</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -572,25 +570,25 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>0.8378378378378378</v>
+      </c>
+      <c r="C7">
+        <v>0.8108108108108109</v>
+      </c>
+      <c r="D7">
         <v>0.8918918918918919</v>
       </c>
-      <c r="C7">
-        <v>0.6216216216216216</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.8378378378378378</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.8648648648648649</v>
       </c>
-      <c r="F7">
-        <v>0.7567567567567568</v>
-      </c>
       <c r="G7">
-        <v>0.5675675675675675</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="H7">
-        <v>0.7567567567567568</v>
+        <v>0.7027027027027027</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -601,22 +599,22 @@
         <v>0.7837837837837838</v>
       </c>
       <c r="C8">
+        <v>0.7027027027027027</v>
+      </c>
+      <c r="D8">
+        <v>0.7837837837837838</v>
+      </c>
+      <c r="E8">
         <v>0.7567567567567568</v>
       </c>
-      <c r="D8">
+      <c r="F8">
+        <v>0.7837837837837838</v>
+      </c>
+      <c r="G8">
+        <v>0.8648648648648649</v>
+      </c>
+      <c r="H8">
         <v>0.7567567567567568</v>
-      </c>
-      <c r="E8">
-        <v>0.7837837837837838</v>
-      </c>
-      <c r="F8">
-        <v>0.7567567567567568</v>
-      </c>
-      <c r="G8">
-        <v>0.5675675675675675</v>
-      </c>
-      <c r="H8">
-        <v>0.7297297297297297</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -624,22 +622,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8333333333333334</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C9">
-        <v>0.8333333333333334</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="D9">
         <v>0.8333333333333334</v>
       </c>
       <c r="E9">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="F9">
         <v>0.8611111111111112</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.8055555555555556</v>
-      </c>
-      <c r="G9">
-        <v>0.5833333333333334</v>
       </c>
       <c r="H9">
         <v>0.8055555555555556</v>
@@ -650,25 +648,25 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="C10">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="D10">
         <v>0.7777777777777778</v>
       </c>
-      <c r="C10">
+      <c r="E10">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="F10">
         <v>0.7777777777777778</v>
       </c>
-      <c r="D10">
-        <v>0.8055555555555556</v>
-      </c>
-      <c r="E10">
+      <c r="G10">
         <v>0.7777777777777778</v>
       </c>
-      <c r="F10">
-        <v>0.7222222222222222</v>
-      </c>
-      <c r="G10">
-        <v>0.5833333333333334</v>
-      </c>
       <c r="H10">
-        <v>0.8055555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -676,25 +674,51 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>0.7428571428571429</v>
+      </c>
+      <c r="C11">
         <v>0.8</v>
       </c>
-      <c r="C11">
-        <v>0.7428571428571429</v>
-      </c>
       <c r="D11">
-        <v>0.7142857142857143</v>
+        <v>0.8</v>
       </c>
       <c r="E11">
         <v>0.7142857142857143</v>
       </c>
       <c r="F11">
-        <v>0.6857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G11">
-        <v>0.5714285714285714</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="H11">
-        <v>0.6571428571428571</v>
+        <v>0.6285714285714286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.7617047122310281</v>
+      </c>
+      <c r="C12">
+        <v>0.7595321637426899</v>
+      </c>
+      <c r="D12">
+        <v>0.7760328749802434</v>
+      </c>
+      <c r="E12">
+        <v>0.7752890108153265</v>
+      </c>
+      <c r="F12">
+        <v>0.7700258529205898</v>
+      </c>
+      <c r="G12">
+        <v>0.7573355686513581</v>
+      </c>
+      <c r="H12">
+        <v>0.734561742193321</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +728,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -738,25 +762,25 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="C2">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="D2">
         <v>0.6388888888888888</v>
       </c>
-      <c r="C2">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.5555555555555556</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.6388888888888888</v>
       </c>
-      <c r="F2">
-        <v>0.6944444444444444</v>
-      </c>
       <c r="G2">
-        <v>0.2777777777777778</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="H2">
-        <v>0.6111111111111112</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -764,25 +788,25 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="C3">
         <v>0.7058823529411765</v>
       </c>
-      <c r="C3">
-        <v>0.6176470588235294</v>
-      </c>
       <c r="D3">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="E3">
         <v>0.7352941176470589</v>
-      </c>
-      <c r="E3">
-        <v>0.7058823529411765</v>
       </c>
       <c r="F3">
         <v>0.7058823529411765</v>
       </c>
       <c r="G3">
-        <v>0.3529411764705883</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="H3">
-        <v>0.6764705882352942</v>
+        <v>0.6176470588235294</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -790,25 +814,25 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>0.7647058823529411</v>
+      </c>
+      <c r="C4">
+        <v>0.7352941176470589</v>
+      </c>
+      <c r="D4">
         <v>0.6764705882352942</v>
       </c>
-      <c r="C4">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.5882352941176471</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.7941176470588235</v>
       </c>
-      <c r="F4">
-        <v>0.7058823529411765</v>
-      </c>
       <c r="G4">
-        <v>0.4117647058823529</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="H4">
-        <v>0.7352941176470589</v>
+        <v>0.6470588235294118</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -816,22 +840,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7272727272727273</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="C5">
-        <v>0.6060606060606061</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D5">
         <v>0.7272727272727273</v>
       </c>
       <c r="E5">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="F5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F5">
-        <v>0.5757575757575758</v>
-      </c>
       <c r="G5">
-        <v>0.303030303030303</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H5">
         <v>0.696969696969697</v>
@@ -842,13 +866,13 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>0.8787878787878788</v>
+      </c>
+      <c r="C6">
+        <v>0.8484848484848485</v>
+      </c>
+      <c r="D6">
         <v>0.9090909090909091</v>
-      </c>
-      <c r="C6">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="D6">
-        <v>0.7878787878787878</v>
       </c>
       <c r="E6">
         <v>0.7878787878787878</v>
@@ -857,10 +881,10 @@
         <v>0.7878787878787878</v>
       </c>
       <c r="G6">
-        <v>0.3333333333333333</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="H6">
-        <v>0.8484848484848485</v>
+        <v>0.8787878787878788</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -868,25 +892,25 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>0.8484848484848485</v>
+      </c>
+      <c r="C7">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D7">
         <v>0.9090909090909091</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>0.7878787878787878</v>
       </c>
-      <c r="D7">
-        <v>0.7878787878787878</v>
-      </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.8484848484848485</v>
       </c>
-      <c r="F7">
+      <c r="G7">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="H7">
         <v>0.7575757575757576</v>
-      </c>
-      <c r="G7">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="H7">
-        <v>0.7878787878787878</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -894,7 +918,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7272727272727273</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="C8">
         <v>0.7575757575757576</v>
@@ -906,13 +930,13 @@
         <v>0.7272727272727273</v>
       </c>
       <c r="F8">
-        <v>0.7575757575757576</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="G8">
-        <v>0.4545454545454545</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="H8">
-        <v>0.6363636363636364</v>
+        <v>0.6060606060606061</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -920,13 +944,13 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="C9">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D9">
         <v>0.8787878787878788</v>
-      </c>
-      <c r="C9">
-        <v>0.7878787878787878</v>
-      </c>
-      <c r="D9">
-        <v>0.7878787878787878</v>
       </c>
       <c r="E9">
         <v>0.7878787878787878</v>
@@ -935,10 +959,10 @@
         <v>0.7878787878787878</v>
       </c>
       <c r="G9">
-        <v>0.4242424242424243</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="H9">
-        <v>0.8484848484848485</v>
+        <v>0.7878787878787878</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -946,22 +970,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6363636363636364</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="C10">
         <v>0.7272727272727273</v>
       </c>
       <c r="D10">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="E10">
         <v>0.6060606060606061</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.6363636363636364</v>
       </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="G10">
-        <v>0.3333333333333333</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="H10">
         <v>0.696969696969697</v>
@@ -972,25 +996,51 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>0.7575757575757576</v>
+      </c>
+      <c r="C11">
+        <v>0.7878787878787878</v>
+      </c>
+      <c r="D11">
         <v>0.7272727272727273</v>
       </c>
-      <c r="C11">
+      <c r="E11">
+        <v>0.696969696969697</v>
+      </c>
+      <c r="F11">
         <v>0.7272727272727273</v>
       </c>
-      <c r="D11">
+      <c r="G11">
         <v>0.696969696969697</v>
-      </c>
-      <c r="E11">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="F11">
-        <v>0.696969696969697</v>
-      </c>
-      <c r="G11">
-        <v>0.2727272727272727</v>
       </c>
       <c r="H11">
         <v>0.5151515151515151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.7532976827094474</v>
+      </c>
+      <c r="C12">
+        <v>0.7587641117052881</v>
+      </c>
+      <c r="D12">
+        <v>0.7536393345216875</v>
+      </c>
+      <c r="E12">
+        <v>0.7000297088532383</v>
+      </c>
+      <c r="F12">
+        <v>0.7320707070707071</v>
+      </c>
+      <c r="G12">
+        <v>0.7268122400475342</v>
+      </c>
+      <c r="H12">
+        <v>0.6787433155080216</v>
       </c>
     </row>
   </sheetData>
@@ -1000,7 +1050,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1034,25 +1084,25 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>0.7027027027027027</v>
+      </c>
+      <c r="C2">
+        <v>0.6486486486486487</v>
+      </c>
+      <c r="D2">
         <v>0.7837837837837838</v>
       </c>
-      <c r="C2">
+      <c r="E2">
+        <v>0.6486486486486487</v>
+      </c>
+      <c r="F2">
         <v>0.7297297297297297</v>
       </c>
-      <c r="D2">
-        <v>0.6486486486486487</v>
-      </c>
-      <c r="E2">
-        <v>0.7297297297297297</v>
-      </c>
-      <c r="F2">
-        <v>0.7027027027027027</v>
-      </c>
       <c r="G2">
-        <v>0.5405405405405406</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="H2">
-        <v>0.7027027027027027</v>
+        <v>0.6756756756756757</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1060,22 +1110,22 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>0.7297297297297297</v>
+      </c>
+      <c r="C3">
+        <v>0.5405405405405406</v>
+      </c>
+      <c r="D3">
         <v>0.6486486486486487</v>
       </c>
-      <c r="C3">
+      <c r="E3">
+        <v>0.6216216216216216</v>
+      </c>
+      <c r="F3">
+        <v>0.7027027027027027</v>
+      </c>
+      <c r="G3">
         <v>0.7567567567567568</v>
-      </c>
-      <c r="D3">
-        <v>0.6216216216216216</v>
-      </c>
-      <c r="E3">
-        <v>0.7027027027027027</v>
-      </c>
-      <c r="F3">
-        <v>0.7297297297297297</v>
-      </c>
-      <c r="G3">
-        <v>0.5405405405405406</v>
       </c>
       <c r="H3">
         <v>0.6756756756756757</v>
@@ -1086,25 +1136,25 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="C4">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="D4">
         <v>0.7777777777777778</v>
       </c>
-      <c r="C4">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.75</v>
       </c>
-      <c r="F4">
-        <v>0.6944444444444444</v>
-      </c>
       <c r="G4">
-        <v>0.5555555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="H4">
-        <v>0.6388888888888888</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1112,25 +1162,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.75</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C5">
         <v>0.7222222222222222</v>
       </c>
       <c r="D5">
+        <v>0.75</v>
+      </c>
+      <c r="E5">
         <v>0.7222222222222222</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F5">
-        <v>0.5833333333333334</v>
-      </c>
       <c r="G5">
-        <v>0.5555555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="H5">
-        <v>0.75</v>
+        <v>0.6944444444444444</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1138,22 +1188,22 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>0.8611111111111112</v>
+      </c>
+      <c r="C6">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="D6">
         <v>0.8888888888888888</v>
       </c>
-      <c r="C6">
-        <v>0.8611111111111112</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.8333333333333334</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.8055555555555556</v>
       </c>
-      <c r="F6">
-        <v>0.75</v>
-      </c>
       <c r="G6">
-        <v>0.5555555555555556</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H6">
         <v>0.75</v>
@@ -1164,22 +1214,22 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>0.8611111111111112</v>
+      </c>
+      <c r="C7">
+        <v>0.75</v>
+      </c>
+      <c r="D7">
         <v>0.9166666666666666</v>
       </c>
-      <c r="C7">
-        <v>0.6944444444444444</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.6666666666666666</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.8333333333333334</v>
       </c>
-      <c r="F7">
-        <v>0.75</v>
-      </c>
       <c r="G7">
-        <v>0.5555555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H7">
         <v>0.75</v>
@@ -1190,25 +1240,25 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="C8">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="D8">
         <v>0.7777777777777778</v>
       </c>
-      <c r="C8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.6388888888888888</v>
-      </c>
-      <c r="E8">
-        <v>0.7222222222222222</v>
       </c>
       <c r="F8">
         <v>0.7222222222222222</v>
       </c>
       <c r="G8">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="H8">
         <v>0.5555555555555556</v>
-      </c>
-      <c r="H8">
-        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1216,25 +1266,25 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>0.7428571428571429</v>
+      </c>
+      <c r="C9">
+        <v>0.6857142857142857</v>
+      </c>
+      <c r="D9">
         <v>0.7714285714285715</v>
       </c>
-      <c r="C9">
+      <c r="E9">
+        <v>0.6285714285714286</v>
+      </c>
+      <c r="F9">
         <v>0.8</v>
       </c>
-      <c r="D9">
-        <v>0.6285714285714286</v>
-      </c>
-      <c r="E9">
-        <v>0.8</v>
-      </c>
-      <c r="F9">
-        <v>0.7714285714285715</v>
-      </c>
       <c r="G9">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H9">
-        <v>0.7428571428571429</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1242,22 +1292,22 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>0.8285714285714286</v>
+      </c>
+      <c r="C10">
         <v>0.8</v>
       </c>
-      <c r="C10">
-        <v>0.7142857142857143</v>
-      </c>
       <c r="D10">
-        <v>0.7714285714285715</v>
+        <v>0.8</v>
       </c>
       <c r="E10">
         <v>0.7714285714285715</v>
       </c>
       <c r="F10">
-        <v>0.6857142857142857</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="G10">
-        <v>0.5714285714285714</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="H10">
         <v>0.6857142857142857</v>
@@ -1268,25 +1318,51 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>0.6285714285714286</v>
+      </c>
+      <c r="C11">
+        <v>0.7428571428571429</v>
+      </c>
+      <c r="D11">
         <v>0.8</v>
       </c>
-      <c r="C11">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.6571428571428571</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.7428571428571429</v>
       </c>
-      <c r="F11">
-        <v>0.7142857142857143</v>
-      </c>
       <c r="G11">
-        <v>0.5714285714285714</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="H11">
-        <v>0.6285714285714286</v>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.7687987987987988</v>
+      </c>
+      <c r="C12">
+        <v>0.7251093951093951</v>
+      </c>
+      <c r="D12">
+        <v>0.7914972114972114</v>
+      </c>
+      <c r="E12">
+        <v>0.6855190905190905</v>
+      </c>
+      <c r="F12">
+        <v>0.7524495924495924</v>
+      </c>
+      <c r="G12">
+        <v>0.7468940368940368</v>
+      </c>
+      <c r="H12">
+        <v>0.6768018018018018</v>
       </c>
     </row>
   </sheetData>
@@ -1296,7 +1372,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1333,19 +1409,19 @@
         <v>0.6578947368421053</v>
       </c>
       <c r="C2">
-        <v>0.7368421052631579</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="D2">
         <v>0.6578947368421053</v>
       </c>
       <c r="E2">
+        <v>0.6578947368421053</v>
+      </c>
+      <c r="F2">
         <v>0.7368421052631579</v>
       </c>
-      <c r="F2">
-        <v>0.7105263157894737</v>
-      </c>
       <c r="G2">
-        <v>0.5526315789473685</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="H2">
         <v>0.6842105263157895</v>
@@ -1356,25 +1432,25 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="C3">
+        <v>0.7105263157894737</v>
+      </c>
+      <c r="D3">
         <v>0.6842105263157895</v>
       </c>
-      <c r="C3">
-        <v>0.7631578947368421</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.7105263157894737</v>
-      </c>
-      <c r="E3">
-        <v>0.7368421052631579</v>
       </c>
       <c r="F3">
         <v>0.7368421052631579</v>
       </c>
       <c r="G3">
-        <v>0.5526315789473685</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="H3">
-        <v>0.7105263157894737</v>
+        <v>0.6842105263157895</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1382,25 +1458,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7105263157894737</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C4">
-        <v>0.7894736842105263</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="D4">
         <v>0.7105263157894737</v>
       </c>
       <c r="E4">
+        <v>0.7105263157894737</v>
+      </c>
+      <c r="F4">
         <v>0.7368421052631579</v>
       </c>
-      <c r="F4">
-        <v>0.7105263157894737</v>
-      </c>
       <c r="G4">
-        <v>0.5526315789473685</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="H4">
-        <v>0.7631578947368421</v>
+        <v>0.7894736842105263</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1408,22 +1484,22 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>0.7027027027027027</v>
+      </c>
+      <c r="C5">
+        <v>0.6486486486486487</v>
+      </c>
+      <c r="D5">
         <v>0.7297297297297297</v>
       </c>
-      <c r="C5">
-        <v>0.7297297297297297</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.6216216216216216</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.6486486486486487</v>
       </c>
-      <c r="F5">
-        <v>0.5945945945945946</v>
-      </c>
       <c r="G5">
-        <v>0.5675675675675675</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="H5">
         <v>0.6486486486486487</v>
@@ -1434,25 +1510,25 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>0.8108108108108109</v>
+      </c>
+      <c r="C6">
+        <v>0.7567567567567568</v>
+      </c>
+      <c r="D6">
         <v>0.8648648648648649</v>
       </c>
-      <c r="C6">
-        <v>0.8108108108108109</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.7567567567567568</v>
-      </c>
-      <c r="E6">
-        <v>0.7837837837837838</v>
       </c>
       <c r="F6">
         <v>0.7837837837837838</v>
       </c>
       <c r="G6">
-        <v>0.5675675675675675</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="H6">
-        <v>0.7567567567567568</v>
+        <v>0.7297297297297297</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1463,19 +1539,19 @@
         <v>0.8108108108108109</v>
       </c>
       <c r="C7">
-        <v>0.8918918918918919</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="D7">
         <v>0.8108108108108109</v>
       </c>
       <c r="E7">
+        <v>0.8108108108108109</v>
+      </c>
+      <c r="F7">
         <v>0.8378378378378378</v>
       </c>
-      <c r="F7">
-        <v>0.7567567567567568</v>
-      </c>
       <c r="G7">
-        <v>0.5675675675675675</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="H7">
         <v>0.7837837837837838</v>
@@ -1489,19 +1565,19 @@
         <v>0.7837837837837838</v>
       </c>
       <c r="C8">
-        <v>0.6756756756756757</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="D8">
         <v>0.7837837837837838</v>
       </c>
       <c r="E8">
-        <v>0.7297297297297297</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="F8">
         <v>0.7297297297297297</v>
       </c>
       <c r="G8">
-        <v>0.5675675675675675</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="H8">
         <v>0.7837837837837838</v>
@@ -1515,22 +1591,22 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="C9">
-        <v>0.8</v>
+        <v>0.8857142857142857</v>
       </c>
       <c r="D9">
         <v>0.8571428571428571</v>
       </c>
       <c r="E9">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="F9">
         <v>0.8857142857142857</v>
       </c>
-      <c r="F9">
+      <c r="G9">
+        <v>0.8285714285714286</v>
+      </c>
+      <c r="H9">
         <v>0.8</v>
-      </c>
-      <c r="G9">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="H9">
-        <v>0.8285714285714286</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1538,25 +1614,25 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>0.7714285714285715</v>
+      </c>
+      <c r="C10">
+        <v>0.6857142857142857</v>
+      </c>
+      <c r="D10">
         <v>0.7428571428571429</v>
       </c>
-      <c r="C10">
+      <c r="E10">
+        <v>0.6857142857142857</v>
+      </c>
+      <c r="F10">
         <v>0.7142857142857143</v>
       </c>
-      <c r="D10">
-        <v>0.6857142857142857</v>
-      </c>
-      <c r="E10">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="F10">
-        <v>0.6571428571428571</v>
-      </c>
       <c r="G10">
-        <v>0.5714285714285714</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="H10">
-        <v>0.8285714285714286</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1564,25 +1640,51 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>0.8285714285714286</v>
+      </c>
+      <c r="C11">
         <v>0.8</v>
       </c>
-      <c r="C11">
-        <v>0.7428571428571429</v>
-      </c>
       <c r="D11">
-        <v>0.7142857142857143</v>
+        <v>0.8</v>
       </c>
       <c r="E11">
         <v>0.7142857142857143</v>
       </c>
       <c r="F11">
-        <v>0.6571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G11">
-        <v>0.5714285714285714</v>
+        <v>0.8</v>
       </c>
       <c r="H11">
-        <v>0.7428571428571429</v>
+        <v>0.7714285714285715</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.772314570209307</v>
+      </c>
+      <c r="C12">
+        <v>0.7370006096321886</v>
+      </c>
+      <c r="D12">
+        <v>0.7641820768136558</v>
+      </c>
+      <c r="E12">
+        <v>0.7309063198536883</v>
+      </c>
+      <c r="F12">
+        <v>0.7524812030075189</v>
+      </c>
+      <c r="G12">
+        <v>0.771816703921967</v>
+      </c>
+      <c r="H12">
+        <v>0.7475269254216622</v>
       </c>
     </row>
   </sheetData>
@@ -1592,7 +1694,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1626,13 +1728,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6842105263157895</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C2">
         <v>0.6842105263157895</v>
       </c>
       <c r="D2">
-        <v>0.7105263157894737</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="E2">
         <v>0.7105263157894737</v>
@@ -1641,10 +1743,10 @@
         <v>0.7105263157894737</v>
       </c>
       <c r="G2">
-        <v>0.5526315789473685</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="H2">
-        <v>0.7105263157894737</v>
+        <v>0.7631578947368421</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1652,25 +1754,25 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="C3">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="D3">
         <v>0.7105263157894737</v>
       </c>
-      <c r="C3">
-        <v>0.8157894736842105</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.631578947368421</v>
-      </c>
-      <c r="E3">
-        <v>0.7631578947368421</v>
       </c>
       <c r="F3">
         <v>0.7631578947368421</v>
       </c>
       <c r="G3">
-        <v>0.5526315789473685</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="H3">
-        <v>0.8421052631578947</v>
+        <v>0.8157894736842105</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1678,25 +1780,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7105263157894737</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C4">
         <v>0.7894736842105263</v>
       </c>
       <c r="D4">
+        <v>0.7105263157894737</v>
+      </c>
+      <c r="E4">
         <v>0.6842105263157895</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.7631578947368421</v>
       </c>
-      <c r="F4">
+      <c r="G4">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="H4">
         <v>0.7105263157894737</v>
-      </c>
-      <c r="G4">
-        <v>0.5526315789473685</v>
-      </c>
-      <c r="H4">
-        <v>0.7368421052631579</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1704,22 +1806,22 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>0.7027027027027027</v>
+      </c>
+      <c r="C5">
+        <v>0.6486486486486487</v>
+      </c>
+      <c r="D5">
         <v>0.7297297297297297</v>
       </c>
-      <c r="C5">
-        <v>0.7027027027027027</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.3243243243243243</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.7297297297297297</v>
       </c>
-      <c r="F5">
-        <v>0.5945945945945946</v>
-      </c>
       <c r="G5">
-        <v>0.5675675675675675</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="H5">
         <v>0.5945945945945946</v>
@@ -1730,25 +1832,25 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="C6">
+        <v>0.8611111111111112</v>
+      </c>
+      <c r="D6">
         <v>0.8055555555555556</v>
       </c>
-      <c r="C6">
+      <c r="E6">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="F6">
+        <v>0.8611111111111112</v>
+      </c>
+      <c r="G6">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="H6">
         <v>0.75</v>
-      </c>
-      <c r="D6">
-        <v>0.7222222222222222</v>
-      </c>
-      <c r="E6">
-        <v>0.8611111111111112</v>
-      </c>
-      <c r="F6">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="G6">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="H6">
-        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1756,25 +1858,25 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>0.8611111111111112</v>
+      </c>
+      <c r="C7">
+        <v>0.75</v>
+      </c>
+      <c r="D7">
         <v>0.8888888888888888</v>
       </c>
-      <c r="C7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.6111111111111112</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.8333333333333334</v>
       </c>
-      <c r="F7">
-        <v>0.75</v>
-      </c>
       <c r="G7">
-        <v>0.5555555555555556</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="H7">
-        <v>0.6944444444444444</v>
+        <v>0.6111111111111112</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1785,19 +1887,19 @@
         <v>0.8</v>
       </c>
       <c r="C8">
-        <v>0.7142857142857143</v>
+        <v>0.8</v>
       </c>
       <c r="D8">
+        <v>0.8</v>
+      </c>
+      <c r="E8">
         <v>0.6571428571428571</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.8</v>
       </c>
-      <c r="F8">
-        <v>0.7714285714285715</v>
-      </c>
       <c r="G8">
-        <v>0.5714285714285714</v>
+        <v>0.8</v>
       </c>
       <c r="H8">
         <v>0.6857142857142857</v>
@@ -1811,22 +1913,22 @@
         <v>0.8857142857142857</v>
       </c>
       <c r="C9">
-        <v>0.6857142857142857</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D9">
+        <v>0.8857142857142857</v>
+      </c>
+      <c r="E9">
         <v>0.6571428571428571</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.8285714285714286</v>
       </c>
-      <c r="F9">
-        <v>0.8</v>
-      </c>
       <c r="G9">
-        <v>0.5714285714285714</v>
+        <v>0.9142857142857143</v>
       </c>
       <c r="H9">
-        <v>0.8857142857142857</v>
+        <v>0.8285714285714286</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1834,25 +1936,25 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>0.7428571428571429</v>
+      </c>
+      <c r="C10">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="D10">
         <v>0.7714285714285715</v>
       </c>
-      <c r="C10">
+      <c r="E10">
+        <v>0.6</v>
+      </c>
+      <c r="F10">
         <v>0.7142857142857143</v>
       </c>
-      <c r="D10">
-        <v>0.6</v>
-      </c>
-      <c r="E10">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="F10">
-        <v>0.6857142857142857</v>
-      </c>
       <c r="G10">
-        <v>0.5714285714285714</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="H10">
-        <v>0.6857142857142857</v>
+        <v>0.6571428571428571</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1860,25 +1962,51 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="C11">
+        <v>0.7714285714285715</v>
+      </c>
+      <c r="D11">
         <v>0.7428571428571429</v>
       </c>
-      <c r="C11">
-        <v>0.7428571428571429</v>
-      </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.6571428571428571</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.7142857142857143</v>
       </c>
-      <c r="F11">
-        <v>0.6571428571428571</v>
-      </c>
       <c r="G11">
-        <v>0.5714285714285714</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="H11">
         <v>0.7428571428571429</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.7852869787080313</v>
+      </c>
+      <c r="C12">
+        <v>0.7503368782316151</v>
+      </c>
+      <c r="D12">
+        <v>0.7729437332068911</v>
+      </c>
+      <c r="E12">
+        <v>0.6255402018559914</v>
+      </c>
+      <c r="F12">
+        <v>0.7718159136580189</v>
+      </c>
+      <c r="G12">
+        <v>0.753878954142112</v>
+      </c>
+      <c r="H12">
+        <v>0.7159465104201946</v>
       </c>
     </row>
   </sheetData>
@@ -1888,7 +2016,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1922,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>0.6896551724137931</v>
+      </c>
+      <c r="C2">
         <v>0.6551724137931034</v>
-      </c>
-      <c r="C2">
-        <v>0.6896551724137931</v>
       </c>
       <c r="D2">
         <v>0.6551724137931034</v>
       </c>
       <c r="E2">
+        <v>0.6551724137931034</v>
+      </c>
+      <c r="F2">
         <v>0.6896551724137931</v>
       </c>
-      <c r="F2">
-        <v>0.6206896551724138</v>
-      </c>
       <c r="G2">
-        <v>0.5517241379310345</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="H2">
         <v>0.5862068965517241</v>
@@ -1948,22 +2076,22 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>0.6206896551724138</v>
+      </c>
+      <c r="C3">
+        <v>0.6551724137931034</v>
+      </c>
+      <c r="D3">
         <v>0.5517241379310345</v>
       </c>
-      <c r="C3">
-        <v>0.5862068965517241</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.4482758620689655</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.7241379310344828</v>
       </c>
-      <c r="F3">
-        <v>0.6896551724137931</v>
-      </c>
       <c r="G3">
-        <v>0.3448275862068966</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="H3">
         <v>0.4137931034482759</v>
@@ -1974,25 +2102,25 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>0.7241379310344828</v>
+      </c>
+      <c r="C4">
+        <v>0.6551724137931034</v>
+      </c>
+      <c r="D4">
         <v>0.8620689655172413</v>
-      </c>
-      <c r="C4">
-        <v>0.7931034482758621</v>
-      </c>
-      <c r="D4">
-        <v>0.7586206896551724</v>
       </c>
       <c r="E4">
         <v>0.7586206896551724</v>
       </c>
       <c r="F4">
-        <v>0.6896551724137931</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="G4">
-        <v>0.4482758620689655</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="H4">
-        <v>0.5172413793103449</v>
+        <v>0.5517241379310345</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2000,25 +2128,25 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>0.5172413793103449</v>
+      </c>
+      <c r="C5">
+        <v>0.6551724137931034</v>
+      </c>
+      <c r="D5">
         <v>0.5862068965517241</v>
       </c>
-      <c r="C5">
+      <c r="E5">
+        <v>0.4137931034482759</v>
+      </c>
+      <c r="F5">
+        <v>0.5517241379310345</v>
+      </c>
+      <c r="G5">
+        <v>0.5517241379310345</v>
+      </c>
+      <c r="H5">
         <v>0.5862068965517241</v>
-      </c>
-      <c r="D5">
-        <v>0.4137931034482759</v>
-      </c>
-      <c r="E5">
-        <v>0.5517241379310345</v>
-      </c>
-      <c r="F5">
-        <v>0.5172413793103449</v>
-      </c>
-      <c r="G5">
-        <v>0.4482758620689655</v>
-      </c>
-      <c r="H5">
-        <v>0.5517241379310345</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2026,25 +2154,25 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="C6">
         <v>0.75</v>
       </c>
-      <c r="C6">
-        <v>0.6071428571428571</v>
-      </c>
       <c r="D6">
-        <v>0.6428571428571429</v>
+        <v>0.75</v>
       </c>
       <c r="E6">
         <v>0.6428571428571429</v>
       </c>
       <c r="F6">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="G6">
         <v>0.6071428571428571</v>
       </c>
-      <c r="G6">
-        <v>0.4285714285714285</v>
-      </c>
       <c r="H6">
-        <v>0.6428571428571429</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2055,22 +2183,22 @@
         <v>0.75</v>
       </c>
       <c r="C7">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D7">
         <v>0.75</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.6785714285714286</v>
-      </c>
-      <c r="E7">
-        <v>0.7142857142857143</v>
       </c>
       <c r="F7">
         <v>0.7142857142857143</v>
       </c>
       <c r="G7">
-        <v>0.4642857142857143</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="H7">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2078,22 +2206,22 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="C8">
+        <v>0.5925925925925926</v>
+      </c>
+      <c r="D8">
         <v>0.7407407407407407</v>
       </c>
-      <c r="C8">
-        <v>0.7407407407407407</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.6666666666666666</v>
-      </c>
-      <c r="E8">
-        <v>0.7037037037037037</v>
       </c>
       <c r="F8">
         <v>0.7037037037037037</v>
       </c>
       <c r="G8">
-        <v>0.5555555555555556</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="H8">
         <v>0.7037037037037037</v>
@@ -2107,19 +2235,19 @@
         <v>0.7407407407407407</v>
       </c>
       <c r="C9">
+        <v>0.6296296296296297</v>
+      </c>
+      <c r="D9">
         <v>0.7407407407407407</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.6666666666666666</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.7407407407407407</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.7037037037037037</v>
-      </c>
-      <c r="G9">
-        <v>0.4074074074074074</v>
       </c>
       <c r="H9">
         <v>0.6296296296296297</v>
@@ -2130,25 +2258,25 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="C10">
+        <v>0.7307692307692307</v>
+      </c>
+      <c r="D10">
         <v>0.6923076923076923</v>
       </c>
-      <c r="C10">
-        <v>0.8076923076923077</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.6153846153846154</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.7692307692307693</v>
       </c>
-      <c r="F10">
-        <v>0.6538461538461539</v>
-      </c>
       <c r="G10">
-        <v>0.5</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="H10">
-        <v>0.7307692307692307</v>
+        <v>0.6923076923076923</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2159,22 +2287,48 @@
         <v>0.6153846153846154</v>
       </c>
       <c r="C11">
-        <v>0.5384615384615384</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="D11">
         <v>0.6153846153846154</v>
       </c>
       <c r="E11">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="F11">
         <v>0.6538461538461539</v>
       </c>
-      <c r="F11">
-        <v>0.5384615384615384</v>
-      </c>
       <c r="G11">
-        <v>0.3076923076923077</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="H11">
         <v>0.5769230769230769</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.6768044854251751</v>
+      </c>
+      <c r="C12">
+        <v>0.6614889899372658</v>
+      </c>
+      <c r="D12">
+        <v>0.6944346202966892</v>
+      </c>
+      <c r="E12">
+        <v>0.6161393204496652</v>
+      </c>
+      <c r="F12">
+        <v>0.6948802155698708</v>
+      </c>
+      <c r="G12">
+        <v>0.6316653333894713</v>
+      </c>
+      <c r="H12">
+        <v>0.616906656561829</v>
       </c>
     </row>
   </sheetData>
@@ -2184,7 +2338,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2218,25 +2372,25 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>0.5925925925925926</v>
+      </c>
+      <c r="C2">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D2">
         <v>0.7037037037037037</v>
-      </c>
-      <c r="C2">
-        <v>0.6296296296296297</v>
-      </c>
-      <c r="D2">
-        <v>0.6296296296296297</v>
       </c>
       <c r="E2">
         <v>0.6296296296296297</v>
       </c>
       <c r="F2">
-        <v>0.5555555555555556</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="G2">
-        <v>0.6296296296296297</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H2">
-        <v>0.7037037037037037</v>
+        <v>0.7407407407407407</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2244,25 +2398,25 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
         <v>0.6923076923076923</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>0.6153846153846154</v>
-      </c>
-      <c r="D3">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="E3">
-        <v>0.6538461538461539</v>
       </c>
       <c r="F3">
         <v>0.6538461538461539</v>
       </c>
       <c r="G3">
-        <v>0.4230769230769231</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="H3">
-        <v>0.5</v>
+        <v>0.6153846153846154</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2270,19 +2424,19 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="C4">
+        <v>0.2692307692307692</v>
+      </c>
+      <c r="D4">
         <v>0.6538461538461539</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>0.6923076923076923</v>
       </c>
-      <c r="D4">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.7692307692307693</v>
-      </c>
-      <c r="F4">
-        <v>0.6923076923076923</v>
       </c>
       <c r="G4">
         <v>0.6538461538461539</v>
@@ -2296,25 +2450,25 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="C5">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="D5">
         <v>0.6538461538461539</v>
-      </c>
-      <c r="C5">
-        <v>0.5384615384615384</v>
-      </c>
-      <c r="D5">
-        <v>0.5384615384615384</v>
       </c>
       <c r="E5">
         <v>0.5384615384615384</v>
       </c>
       <c r="F5">
-        <v>0.4615384615384616</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="G5">
-        <v>0.6153846153846154</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="H5">
-        <v>0.6923076923076923</v>
+        <v>0.6538461538461539</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2322,25 +2476,25 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>0.64</v>
+      </c>
+      <c r="C6">
+        <v>0.36</v>
+      </c>
+      <c r="D6">
         <v>0.68</v>
       </c>
-      <c r="C6">
-        <v>0.64</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.52</v>
-      </c>
-      <c r="E6">
-        <v>0.5600000000000001</v>
       </c>
       <c r="F6">
         <v>0.5600000000000001</v>
       </c>
       <c r="G6">
-        <v>0.52</v>
+        <v>0.68</v>
       </c>
       <c r="H6">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2351,22 +2505,22 @@
         <v>0.68</v>
       </c>
       <c r="C7">
-        <v>0.72</v>
+        <v>0.48</v>
       </c>
       <c r="D7">
+        <v>0.68</v>
+      </c>
+      <c r="E7">
         <v>0.6</v>
-      </c>
-      <c r="E7">
-        <v>0.68</v>
       </c>
       <c r="F7">
         <v>0.68</v>
       </c>
       <c r="G7">
+        <v>0.52</v>
+      </c>
+      <c r="H7">
         <v>0.5600000000000001</v>
-      </c>
-      <c r="H7">
-        <v>0.64</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2374,25 +2528,25 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>0.68</v>
+      </c>
+      <c r="C8">
+        <v>0.36</v>
+      </c>
+      <c r="D8">
         <v>0.72</v>
       </c>
-      <c r="C8">
-        <v>0.64</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.44</v>
-      </c>
-      <c r="E8">
-        <v>0.64</v>
       </c>
       <c r="F8">
         <v>0.64</v>
       </c>
       <c r="G8">
-        <v>0.52</v>
+        <v>0.72</v>
       </c>
       <c r="H8">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2400,25 +2554,25 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>0.64</v>
+      </c>
+      <c r="C9">
+        <v>0.24</v>
+      </c>
+      <c r="D9">
         <v>0.6</v>
       </c>
-      <c r="C9">
-        <v>0.64</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.52</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.68</v>
-      </c>
-      <c r="F9">
-        <v>0.64</v>
       </c>
       <c r="G9">
         <v>0.64</v>
       </c>
       <c r="H9">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2426,13 +2580,13 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>0.68</v>
+      </c>
+      <c r="C10">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D10">
         <v>0.64</v>
-      </c>
-      <c r="C10">
-        <v>0.68</v>
-      </c>
-      <c r="D10">
-        <v>0.6</v>
       </c>
       <c r="E10">
         <v>0.6</v>
@@ -2441,10 +2595,10 @@
         <v>0.6</v>
       </c>
       <c r="G10">
-        <v>0.44</v>
+        <v>0.72</v>
       </c>
       <c r="H10">
-        <v>0.64</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2452,25 +2606,51 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="C11">
+        <v>0.48</v>
+      </c>
+      <c r="D11">
         <v>0.6</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>0.52</v>
       </c>
-      <c r="D11">
-        <v>0.52</v>
-      </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.6</v>
       </c>
-      <c r="F11">
-        <v>0.48</v>
-      </c>
       <c r="G11">
-        <v>0.44</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H11">
         <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.6395669515669515</v>
+      </c>
+      <c r="C12">
+        <v>0.4078290598290598</v>
+      </c>
+      <c r="D12">
+        <v>0.6623703703703703</v>
+      </c>
+      <c r="E12">
+        <v>0.5675783475783476</v>
+      </c>
+      <c r="F12">
+        <v>0.6351168091168091</v>
+      </c>
+      <c r="G12">
+        <v>0.6506666666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.6423817663817664</v>
       </c>
     </row>
   </sheetData>
@@ -2478,9 +2658,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2514,25 +2694,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C2">
-        <v>0.6</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="D2">
-        <v>0.3</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="E2">
-        <v>0.6</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="F2">
-        <v>0.6</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="G2">
-        <v>0.4</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="H2">
-        <v>0.6</v>
+        <v>0.631578947368421</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2540,25 +2720,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C3">
-        <v>0.6</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="D3">
-        <v>0.3</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="E3">
-        <v>0.7</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="F3">
-        <v>0.7</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="G3">
-        <v>0.6</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="H3">
-        <v>0.4</v>
+        <v>0.6842105263157895</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2566,25 +2746,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C4">
-        <v>0.6</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="D4">
-        <v>0.3</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="E4">
-        <v>0.6</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="G4">
-        <v>0.4</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="H4">
-        <v>0.7</v>
+        <v>0.6842105263157895</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2592,25 +2772,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C5">
-        <v>0.7</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="D5">
-        <v>0.4</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="E5">
-        <v>0.7</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="F5">
-        <v>0.6</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="G5">
-        <v>0.6</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="H5">
-        <v>0.6</v>
+        <v>0.6756756756756757</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2618,25 +2798,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="D6">
-        <v>0.6</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="E6">
-        <v>0.5</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="G6">
-        <v>0.3</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="H6">
-        <v>0.6</v>
+        <v>0.8648648648648649</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2644,25 +2824,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="D7">
-        <v>0.125</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="E7">
-        <v>0.75</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="F7">
-        <v>0.75</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="G7">
-        <v>0.625</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="H7">
-        <v>0.75</v>
+        <v>0.7837837837837838</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2670,25 +2850,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.625</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C8">
-        <v>0.625</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="D8">
-        <v>0.25</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="E8">
-        <v>0.75</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="F8">
-        <v>0.75</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="G8">
-        <v>0.375</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="H8">
-        <v>0.625</v>
+        <v>0.8108108108108109</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2696,25 +2876,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C9">
-        <v>0.625</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="E9">
-        <v>0.625</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="F9">
-        <v>0.625</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="G9">
-        <v>0.375</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H9">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2722,25 +2902,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5714285714285714</v>
+        <v>0.75</v>
       </c>
       <c r="C10">
-        <v>0.7142857142857143</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="D10">
-        <v>0.2857142857142857</v>
+        <v>0.75</v>
       </c>
       <c r="E10">
-        <v>0.8571428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="F10">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="G10">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="H10">
-        <v>0.5714285714285714</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2748,25 +2928,51 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2857142857142857</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="C11">
-        <v>0.4285714285714285</v>
+        <v>0.8</v>
       </c>
       <c r="D11">
-        <v>0.2857142857142857</v>
+        <v>0.8</v>
       </c>
       <c r="E11">
-        <v>0.5714285714285714</v>
+        <v>0.8</v>
       </c>
       <c r="F11">
-        <v>0.5714285714285714</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="G11">
-        <v>0.4285714285714285</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="H11">
-        <v>0.4285714285714285</v>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.7701845830793199</v>
+      </c>
+      <c r="C12">
+        <v>0.772962699541647</v>
+      </c>
+      <c r="D12">
+        <v>0.7842871819187608</v>
+      </c>
+      <c r="E12">
+        <v>0.7888983720562668</v>
+      </c>
+      <c r="F12">
+        <v>0.7888940820519769</v>
+      </c>
+      <c r="G12">
+        <v>0.748989703989704</v>
+      </c>
+      <c r="H12">
+        <v>0.7266087516087516</v>
       </c>
     </row>
   </sheetData>
@@ -2774,9 +2980,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2810,25 +3016,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6363636363636364</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C2">
-        <v>0.3636363636363636</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D2">
-        <v>0.3636363636363636</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E2">
-        <v>0.4545454545454545</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="F2">
-        <v>0.4545454545454545</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="G2">
-        <v>0.5454545454545454</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="H2">
-        <v>0.7272727272727273</v>
+        <v>0.6388888888888888</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2836,25 +3042,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C3">
-        <v>0.4</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="D3">
-        <v>0.4</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="E3">
-        <v>0.6</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="F3">
-        <v>0.4</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="G3">
-        <v>0.2</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="H3">
-        <v>0.4</v>
+        <v>0.6470588235294118</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2862,25 +3068,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C4">
-        <v>0.4</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="D4">
-        <v>0.2</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="E4">
-        <v>0.4</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="G4">
-        <v>0.6</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="H4">
-        <v>0.4</v>
+        <v>0.8235294117647058</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2888,25 +3094,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="C5">
-        <v>0.4</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="D5">
-        <v>0.4</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E5">
-        <v>0.4</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="F5">
-        <v>0.4</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="G5">
-        <v>0.2</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="H5">
-        <v>0.4</v>
+        <v>0.7272727272727273</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2914,25 +3120,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="C6">
-        <v>0.6</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="D6">
-        <v>0.2</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="E6">
-        <v>0.6</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="F6">
-        <v>0.3</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.4</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="H6">
-        <v>0.7</v>
+        <v>0.696969696969697</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2940,25 +3146,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D7">
-        <v>0.25</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="E7">
-        <v>0.625</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="G7">
-        <v>0.25</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="H7">
-        <v>0.625</v>
+        <v>0.7878787878787878</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2966,25 +3172,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="C8">
-        <v>0.625</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="D8">
-        <v>0.75</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="E8">
-        <v>0.75</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="F8">
-        <v>0.625</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="H8">
-        <v>0.5</v>
+        <v>0.7878787878787878</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2992,25 +3198,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="D9">
-        <v>0.375</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="E9">
-        <v>0.625</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="F9">
-        <v>0.375</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="G9">
-        <v>0.25</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="H9">
-        <v>0.75</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3018,25 +3224,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.75</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="C10">
-        <v>0.375</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="D10">
-        <v>0.25</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="E10">
-        <v>0.375</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="F10">
-        <v>0.75</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="G10">
-        <v>0.5</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="H10">
-        <v>0.875</v>
+        <v>0.7272727272727273</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3044,25 +3250,51 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.625</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="C11">
-        <v>0.5</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="D11">
-        <v>0.375</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="E11">
-        <v>0.5</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="F11">
-        <v>0.625</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="G11">
-        <v>0.5</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="H11">
-        <v>0.875</v>
+        <v>0.7575757575757576</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.7702614379084968</v>
+      </c>
+      <c r="C12">
+        <v>0.7586452762923351</v>
+      </c>
+      <c r="D12">
+        <v>0.7681818181818183</v>
+      </c>
+      <c r="E12">
+        <v>0.6867944147355913</v>
+      </c>
+      <c r="F12">
+        <v>0.7075906120023767</v>
+      </c>
+      <c r="G12">
+        <v>0.746286393345217</v>
+      </c>
+      <c r="H12">
+        <v>0.735190136660725</v>
       </c>
     </row>
   </sheetData>
@@ -3070,9 +3302,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3106,13 +3338,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6052631578947368</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C2">
-        <v>0.7631578947368421</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="D2">
-        <v>0.7368421052631579</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="E2">
         <v>0.7631578947368421</v>
@@ -3121,10 +3353,10 @@
         <v>0.7105263157894737</v>
       </c>
       <c r="G2">
-        <v>0.5526315789473685</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="H2">
-        <v>0.6842105263157895</v>
+        <v>0.5789473684210527</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3132,25 +3364,25 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="C3">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="D3">
         <v>0.6842105263157895</v>
       </c>
-      <c r="C3">
-        <v>0.7105263157894737</v>
-      </c>
-      <c r="D3">
-        <v>0.7368421052631579</v>
-      </c>
       <c r="E3">
-        <v>0.7631578947368421</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="F3">
         <v>0.7368421052631579</v>
       </c>
       <c r="G3">
-        <v>0.5526315789473685</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="H3">
-        <v>0.7631578947368421</v>
+        <v>0.5789473684210527</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3161,22 +3393,22 @@
         <v>0.7631578947368421</v>
       </c>
       <c r="C4">
-        <v>0.7368421052631579</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="D4">
-        <v>0.7894736842105263</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="E4">
-        <v>0.7368421052631579</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="F4">
         <v>0.7368421052631579</v>
       </c>
       <c r="G4">
-        <v>0.5263157894736842</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="H4">
-        <v>0.7105263157894737</v>
+        <v>0.6578947368421053</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3187,22 +3419,22 @@
         <v>0.7027027027027027</v>
       </c>
       <c r="C5">
-        <v>0.7837837837837838</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="D5">
-        <v>0.7297297297297297</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="E5">
         <v>0.7297297297297297</v>
       </c>
       <c r="F5">
-        <v>0.5945945945945946</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="G5">
-        <v>0.5675675675675675</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="H5">
-        <v>0.6756756756756757</v>
+        <v>0.6486486486486487</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3210,25 +3442,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8918918918918919</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="C6">
-        <v>0.7837837837837838</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="D6">
-        <v>0.8918918918918919</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="E6">
+        <v>0.8378378378378378</v>
+      </c>
+      <c r="F6">
         <v>0.8648648648648649</v>
       </c>
-      <c r="F6">
-        <v>0.7837837837837838</v>
-      </c>
       <c r="G6">
-        <v>0.5675675675675675</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="H6">
-        <v>0.8378378378378378</v>
+        <v>0.7567567567567568</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3236,25 +3468,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.918918918918919</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="C7">
         <v>0.7027027027027027</v>
       </c>
       <c r="D7">
-        <v>0.8918918918918919</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="E7">
         <v>0.8378378378378378</v>
       </c>
       <c r="F7">
-        <v>0.7567567567567568</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="G7">
-        <v>0.5675675675675675</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="H7">
-        <v>0.7567567567567568</v>
+        <v>0.6756756756756757</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3262,25 +3494,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8378378378378378</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C8">
+        <v>0.7567567567567568</v>
+      </c>
+      <c r="D8">
         <v>0.7837837837837838</v>
       </c>
-      <c r="D8">
-        <v>0.7567567567567568</v>
-      </c>
       <c r="E8">
-        <v>0.8108108108108109</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="F8">
-        <v>0.7567567567567568</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="G8">
-        <v>0.5675675675675675</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="H8">
-        <v>0.8648648648648649</v>
+        <v>0.7297297297297297</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3288,25 +3520,25 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="C9">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="D9">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="E9">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="F9">
         <v>0.8888888888888888</v>
       </c>
-      <c r="C9">
+      <c r="G9">
+        <v>0.8611111111111112</v>
+      </c>
+      <c r="H9">
         <v>0.8333333333333334</v>
-      </c>
-      <c r="D9">
-        <v>0.8055555555555556</v>
-      </c>
-      <c r="E9">
-        <v>0.8611111111111112</v>
-      </c>
-      <c r="F9">
-        <v>0.8055555555555556</v>
-      </c>
-      <c r="G9">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="H9">
-        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3314,25 +3546,25 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="C10">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="D10">
+        <v>0.8611111111111112</v>
+      </c>
+      <c r="E10">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="F10">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="G10">
         <v>0.75</v>
       </c>
-      <c r="C10">
-        <v>0.7222222222222222</v>
-      </c>
-      <c r="D10">
+      <c r="H10">
         <v>0.75</v>
-      </c>
-      <c r="E10">
-        <v>0.75</v>
-      </c>
-      <c r="F10">
-        <v>0.75</v>
-      </c>
-      <c r="G10">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="H10">
-        <v>0.7222222222222222</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3340,25 +3572,51 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="C11">
-        <v>0.8</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D11">
-        <v>0.8</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="E11">
-        <v>0.7714285714285715</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F11">
-        <v>0.6857142857142857</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="G11">
-        <v>0.5714285714285714</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="H11">
-        <v>0.7714285714285715</v>
+        <v>0.6285714285714286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.7892029623608571</v>
+      </c>
+      <c r="C12">
+        <v>0.7402882205513784</v>
+      </c>
+      <c r="D12">
+        <v>0.7765547878705774</v>
+      </c>
+      <c r="E12">
+        <v>0.7776321434216171</v>
+      </c>
+      <c r="F12">
+        <v>0.7782923525028788</v>
+      </c>
+      <c r="G12">
+        <v>0.7670468965205808</v>
+      </c>
+      <c r="H12">
+        <v>0.6838505046399783</v>
       </c>
     </row>
   </sheetData>
@@ -3366,9 +3624,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3402,25 +3660,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6666666666666666</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C2">
-        <v>0.6666666666666666</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="D2">
-        <v>0.6388888888888888</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="E2">
-        <v>0.6944444444444444</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="F2">
-        <v>0.6944444444444444</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="G2">
-        <v>0.5277777777777778</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="H2">
-        <v>0.6944444444444444</v>
+        <v>0.6578947368421053</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3428,25 +3686,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6764705882352942</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C3">
-        <v>0.7058823529411765</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="D3">
-        <v>0.6764705882352942</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="E3">
-        <v>0.6764705882352942</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="F3">
-        <v>0.7058823529411765</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="G3">
-        <v>0.5294117647058824</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="H3">
-        <v>0.6470588235294118</v>
+        <v>0.7105263157894737</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3454,25 +3712,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8235294117647058</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C4">
-        <v>0.7058823529411765</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="D4">
-        <v>0.7647058823529411</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="E4">
-        <v>0.7352941176470589</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="F4">
-        <v>0.7352941176470589</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="G4">
-        <v>0.5294117647058824</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="H4">
-        <v>0.7941176470588235</v>
+        <v>0.6842105263157895</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3480,25 +3738,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6666666666666666</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C5">
-        <v>0.6666666666666666</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="D5">
-        <v>0.6363636363636364</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="E5">
-        <v>0.6363636363636364</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="F5">
-        <v>0.5757575757575758</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="G5">
-        <v>0.5454545454545454</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="H5">
-        <v>0.696969696969697</v>
+        <v>0.7567567567567568</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3506,25 +3764,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8787878787878788</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="C6">
-        <v>0.7575757575757576</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="D6">
-        <v>0.7575757575757576</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="E6">
-        <v>0.6666666666666666</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="F6">
-        <v>0.7272727272727273</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="G6">
-        <v>0.5454545454545454</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="H6">
-        <v>0.7272727272727273</v>
+        <v>0.8918918918918919</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3532,25 +3790,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.696969696969697</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="C7">
-        <v>0.7272727272727273</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="D7">
-        <v>0.4848484848484849</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="E7">
-        <v>0.8787878787878788</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="F7">
-        <v>0.7575757575757576</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="G7">
-        <v>0.5454545454545454</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="H7">
-        <v>0.7878787878787878</v>
+        <v>0.7297297297297297</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3558,25 +3816,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8484848484848485</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="C8">
-        <v>0.7575757575757576</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="D8">
-        <v>0.7575757575757576</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="E8">
-        <v>0.7272727272727273</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="F8">
-        <v>0.7272727272727273</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="G8">
-        <v>0.5454545454545454</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="H8">
-        <v>0.7878787878787878</v>
+        <v>0.7837837837837838</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3584,25 +3842,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8787878787878788</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C9">
-        <v>0.8181818181818182</v>
+        <v>0.75</v>
       </c>
       <c r="D9">
-        <v>0.8484848484848485</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="E9">
-        <v>0.7575757575757576</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="F9">
-        <v>0.7878787878787878</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="G9">
-        <v>0.5454545454545454</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="H9">
-        <v>0.7272727272727273</v>
+        <v>0.8611111111111112</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3610,25 +3868,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7878787878787878</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C10">
-        <v>0.7272727272727273</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="D10">
-        <v>0.7272727272727273</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="E10">
-        <v>0.696969696969697</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="F10">
-        <v>0.7272727272727273</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G10">
-        <v>0.5454545454545454</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H10">
-        <v>0.7575757575757576</v>
+        <v>0.6944444444444444</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3636,25 +3894,51 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7575757575757576</v>
+        <v>0.8857142857142857</v>
       </c>
       <c r="C11">
-        <v>0.7272727272727273</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="D11">
-        <v>0.5757575757575758</v>
+        <v>0.9142857142857143</v>
       </c>
       <c r="E11">
-        <v>0.6060606060606061</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="F11">
-        <v>0.6060606060606061</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="G11">
-        <v>0.5454545454545454</v>
+        <v>0.9142857142857143</v>
       </c>
       <c r="H11">
-        <v>0.7272727272727273</v>
+        <v>0.7714285714285715</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.8166218474113209</v>
+      </c>
+      <c r="C12">
+        <v>0.7292604258393732</v>
+      </c>
+      <c r="D12">
+        <v>0.8253229921650975</v>
+      </c>
+      <c r="E12">
+        <v>0.7570974734132629</v>
+      </c>
+      <c r="F12">
+        <v>0.778078981236876</v>
+      </c>
+      <c r="G12">
+        <v>0.7632833209148998</v>
+      </c>
+      <c r="H12">
+        <v>0.7541777868093658</v>
       </c>
     </row>
   </sheetData>
@@ -3662,9 +3946,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3698,25 +3982,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6578947368421053</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C2">
-        <v>0.7631578947368421</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="D2">
         <v>0.7631578947368421</v>
       </c>
       <c r="E2">
-        <v>0.7105263157894737</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="F2">
         <v>0.7105263157894737</v>
       </c>
       <c r="G2">
-        <v>0.5526315789473685</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="H2">
-        <v>0.6052631578947368</v>
+        <v>0.6842105263157895</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3724,25 +4008,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6842105263157895</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C3">
         <v>0.7894736842105263</v>
       </c>
       <c r="D3">
-        <v>0.8421052631578947</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="E3">
         <v>0.7368421052631579</v>
       </c>
       <c r="F3">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="G3">
         <v>0.7631578947368421</v>
       </c>
-      <c r="G3">
-        <v>0.5526315789473685</v>
-      </c>
       <c r="H3">
-        <v>0.6052631578947368</v>
+        <v>0.7631578947368421</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3750,25 +4034,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6842105263157895</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C4">
-        <v>0.7368421052631579</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="D4">
         <v>0.7105263157894737</v>
       </c>
       <c r="E4">
-        <v>0.7368421052631579</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="F4">
         <v>0.7368421052631579</v>
       </c>
       <c r="G4">
-        <v>0.5526315789473685</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="H4">
-        <v>0.6842105263157895</v>
+        <v>0.7631578947368421</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3776,25 +4060,25 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>0.6756756756756757</v>
+      </c>
+      <c r="C5">
+        <v>0.6756756756756757</v>
+      </c>
+      <c r="D5">
         <v>0.7567567567567568</v>
       </c>
-      <c r="C5">
-        <v>0.6216216216216216</v>
-      </c>
-      <c r="D5">
-        <v>0.7297297297297297</v>
-      </c>
       <c r="E5">
+        <v>0.6486486486486487</v>
+      </c>
+      <c r="F5">
         <v>0.7027027027027027</v>
       </c>
-      <c r="F5">
-        <v>0.5945945945945946</v>
-      </c>
       <c r="G5">
-        <v>0.5675675675675675</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="H5">
-        <v>0.6756756756756757</v>
+        <v>0.6486486486486487</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3802,7 +4086,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.918918918918919</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="C6">
         <v>0.8378378378378378</v>
@@ -3814,13 +4098,13 @@
         <v>0.8648648648648649</v>
       </c>
       <c r="F6">
-        <v>0.7837837837837838</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="G6">
-        <v>0.5405405405405406</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="H6">
-        <v>0.7567567567567568</v>
+        <v>0.8378378378378378</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3828,25 +4112,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7567567567567568</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="C7">
-        <v>0.7297297297297297</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="D7">
+        <v>0.8648648648648649</v>
+      </c>
+      <c r="E7">
+        <v>0.8648648648648649</v>
+      </c>
+      <c r="F7">
         <v>0.8378378378378378</v>
       </c>
-      <c r="E7">
-        <v>0.8378378378378378</v>
-      </c>
-      <c r="F7">
-        <v>0.7567567567567568</v>
-      </c>
       <c r="G7">
-        <v>0.5675675675675675</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="H7">
-        <v>0.7027027027027027</v>
+        <v>0.7837837837837838</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3860,16 +4144,16 @@
         <v>0.7837837837837838</v>
       </c>
       <c r="D8">
-        <v>0.7297297297297297</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="E8">
         <v>0.7837837837837838</v>
       </c>
       <c r="F8">
+        <v>0.8108108108108109</v>
+      </c>
+      <c r="G8">
         <v>0.7567567567567568</v>
-      </c>
-      <c r="G8">
-        <v>0.5675675675675675</v>
       </c>
       <c r="H8">
         <v>0.7567567567567568</v>
@@ -3880,22 +4164,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8333333333333334</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C9">
-        <v>0.8055555555555556</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="D9">
-        <v>0.8055555555555556</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="E9">
+        <v>0.8611111111111112</v>
+      </c>
+      <c r="F9">
         <v>0.8888888888888888</v>
       </c>
-      <c r="F9">
-        <v>0.8055555555555556</v>
-      </c>
       <c r="G9">
-        <v>0.5833333333333334</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="H9">
         <v>0.8055555555555556</v>
@@ -3906,25 +4190,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8611111111111112</v>
+        <v>0.75</v>
       </c>
       <c r="C10">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="D10">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="E10">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="F10">
         <v>0.75</v>
       </c>
-      <c r="D10">
+      <c r="G10">
         <v>0.8055555555555556</v>
       </c>
-      <c r="E10">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="F10">
-        <v>0.7222222222222222</v>
-      </c>
-      <c r="G10">
-        <v>0.5833333333333334</v>
-      </c>
       <c r="H10">
-        <v>0.7222222222222222</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3932,25 +4216,51 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>0.7428571428571429</v>
+      </c>
+      <c r="C11">
+        <v>0.8857142857142857</v>
+      </c>
+      <c r="D11">
         <v>0.8285714285714286</v>
       </c>
-      <c r="C11">
-        <v>0.7714285714285715</v>
-      </c>
-      <c r="D11">
-        <v>0.7142857142857143</v>
-      </c>
       <c r="E11">
-        <v>0.7428571428571429</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="F11">
         <v>0.6857142857142857</v>
       </c>
       <c r="G11">
-        <v>0.5714285714285714</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="H11">
-        <v>0.6285714285714286</v>
+        <v>0.6857142857142857</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.7725234256813205</v>
+      </c>
+      <c r="C12">
+        <v>0.7843988349251507</v>
+      </c>
+      <c r="D12">
+        <v>0.7974572692993745</v>
+      </c>
+      <c r="E12">
+        <v>0.7615420307525571</v>
+      </c>
+      <c r="F12">
+        <v>0.772502991713518</v>
+      </c>
+      <c r="G12">
+        <v>0.7513367879157353</v>
+      </c>
+      <c r="H12">
+        <v>0.7478823184086342</v>
       </c>
     </row>
   </sheetData>
@@ -3958,9 +4268,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3994,25 +4304,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7368421052631579</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C2">
-        <v>0.7105263157894737</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="D2">
-        <v>0.6842105263157895</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="E2">
-        <v>0.7631578947368421</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="F2">
-        <v>0.7105263157894737</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="G2">
-        <v>0.5526315789473685</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="H2">
-        <v>0.6842105263157895</v>
+        <v>0.7027027027027027</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4020,25 +4330,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6578947368421053</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C3">
-        <v>0.7368421052631579</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="D3">
-        <v>0.6578947368421053</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="E3">
-        <v>0.7368421052631579</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="F3">
-        <v>0.7368421052631579</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="G3">
-        <v>0.5526315789473685</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="H3">
-        <v>0.6842105263157895</v>
+        <v>0.7567567567567568</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4046,25 +4356,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8421052631578947</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C4">
-        <v>0.7368421052631579</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="D4">
-        <v>0.6842105263157895</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="E4">
-        <v>0.7631578947368421</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="F4">
-        <v>0.7368421052631579</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="G4">
-        <v>0.5526315789473685</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="H4">
-        <v>0.7105263157894737</v>
+        <v>0.7297297297297297</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4072,25 +4382,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7837837837837838</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C5">
-        <v>0.7297297297297297</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="D5">
-        <v>0.7567567567567568</v>
+        <v>0.75</v>
       </c>
       <c r="E5">
-        <v>0.7027027027027027</v>
+        <v>0.75</v>
       </c>
       <c r="F5">
-        <v>0.5945945945945946</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.5675675675675675</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="H5">
-        <v>0.7567567567567568</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4098,25 +4408,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.918918918918919</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C6">
-        <v>0.8108108108108109</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="D6">
-        <v>0.8108108108108109</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="E6">
-        <v>0.8378378378378378</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="F6">
-        <v>0.7837837837837838</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="G6">
-        <v>0.5675675675675675</v>
+        <v>0.75</v>
       </c>
       <c r="H6">
-        <v>0.8918918918918919</v>
+        <v>0.8055555555555556</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4124,25 +4434,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7837837837837838</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C7">
-        <v>0.7567567567567568</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D7">
-        <v>0.7837837837837838</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="E7">
-        <v>0.8378378378378378</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F7">
-        <v>0.7567567567567568</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="G7">
-        <v>0.5675675675675675</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="H7">
-        <v>0.7297297297297297</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4150,25 +4460,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8378378378378378</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C8">
-        <v>0.7297297297297297</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="D8">
-        <v>0.7837837837837838</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="E8">
-        <v>0.7297297297297297</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="F8">
-        <v>0.7567567567567568</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G8">
-        <v>0.5675675675675675</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="H8">
-        <v>0.7837837837837838</v>
+        <v>0.6944444444444444</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4176,25 +4486,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9166666666666666</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="C9">
-        <v>0.7222222222222222</v>
+        <v>0.8</v>
       </c>
       <c r="D9">
-        <v>0.8611111111111112</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="E9">
-        <v>0.8888888888888888</v>
+        <v>0.8</v>
       </c>
       <c r="F9">
-        <v>0.8055555555555556</v>
+        <v>0.8857142857142857</v>
       </c>
       <c r="G9">
-        <v>0.5555555555555556</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="H9">
-        <v>0.8055555555555556</v>
+        <v>0.7714285714285715</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4202,25 +4512,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8611111111111112</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C10">
-        <v>0.75</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="D10">
-        <v>0.8055555555555556</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="E10">
-        <v>0.7777777777777778</v>
+        <v>0.6</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="G10">
-        <v>0.5833333333333334</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="H10">
-        <v>0.7222222222222222</v>
+        <v>0.6571428571428571</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4228,25 +4538,51 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9142857142857143</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C11">
-        <v>0.7714285714285715</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="D11">
-        <v>0.7428571428571429</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="E11">
-        <v>0.7428571428571429</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="F11">
-        <v>0.6857142857142857</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="G11">
-        <v>0.5714285714285714</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="H11">
-        <v>0.7142857142857143</v>
+        <v>0.6764705882352942</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.7571433618492441</v>
+      </c>
+      <c r="C12">
+        <v>0.7708953491306433</v>
+      </c>
+      <c r="D12">
+        <v>0.7684972367325309</v>
+      </c>
+      <c r="E12">
+        <v>0.7344974386150855</v>
+      </c>
+      <c r="F12">
+        <v>0.7687924899689605</v>
+      </c>
+      <c r="G12">
+        <v>0.7484742725919198</v>
+      </c>
+      <c r="H12">
+        <v>0.7349786761551469</v>
       </c>
     </row>
   </sheetData>
@@ -4254,9 +4590,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4290,25 +4626,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7631578947368421</v>
+        <v>0.6875</v>
       </c>
       <c r="C2">
-        <v>0.6842105263157895</v>
+        <v>0.5625</v>
       </c>
       <c r="D2">
-        <v>0.7368421052631579</v>
+        <v>0.71875</v>
       </c>
       <c r="E2">
-        <v>0.7105263157894737</v>
+        <v>0.5625</v>
       </c>
       <c r="F2">
-        <v>0.7105263157894737</v>
+        <v>0.75</v>
       </c>
       <c r="G2">
-        <v>0.5526315789473685</v>
+        <v>0.6875</v>
       </c>
       <c r="H2">
-        <v>0.631578947368421</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4316,25 +4652,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7631578947368421</v>
+        <v>0.78125</v>
       </c>
       <c r="C3">
-        <v>0.631578947368421</v>
+        <v>0.5</v>
       </c>
       <c r="D3">
-        <v>0.7368421052631579</v>
+        <v>0.78125</v>
       </c>
       <c r="E3">
-        <v>0.7368421052631579</v>
+        <v>0.8125</v>
       </c>
       <c r="F3">
-        <v>0.7631578947368421</v>
+        <v>0.84375</v>
       </c>
       <c r="G3">
-        <v>0.5526315789473685</v>
+        <v>0.8125</v>
       </c>
       <c r="H3">
-        <v>0.7631578947368421</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4342,25 +4678,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7105263157894737</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C4">
-        <v>0.7368421052631579</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="D4">
-        <v>0.7105263157894737</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="E4">
-        <v>0.7368421052631579</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="F4">
-        <v>0.7368421052631579</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="G4">
-        <v>0.5526315789473685</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="H4">
-        <v>0.7894736842105263</v>
+        <v>0.7419354838709677</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4368,25 +4704,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7567567567567568</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="C5">
-        <v>0.5945945945945946</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="D5">
-        <v>0.6486486486486487</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="E5">
-        <v>0.7027027027027027</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="F5">
-        <v>0.5945945945945946</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="G5">
-        <v>0.5675675675675675</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="H5">
-        <v>0.6486486486486487</v>
+        <v>0.6451612903225806</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4394,25 +4730,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8378378378378378</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="C6">
-        <v>0.7837837837837838</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="D6">
-        <v>0.8648648648648649</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="E6">
-        <v>0.8648648648648649</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="F6">
-        <v>0.7837837837837838</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="G6">
-        <v>0.5675675675675675</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="H6">
-        <v>0.7837837837837838</v>
+        <v>0.7741935483870968</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4420,25 +4756,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8648648648648649</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="C7">
-        <v>0.7837837837837838</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="D7">
-        <v>0.8648648648648649</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="E7">
-        <v>0.8378378378378378</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="F7">
-        <v>0.7567567567567568</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="G7">
-        <v>0.5675675675675675</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="H7">
-        <v>0.8108108108108109</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4446,25 +4782,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8108108108108109</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="C8">
-        <v>0.7837837837837838</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="D8">
-        <v>0.7837837837837838</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="E8">
-        <v>0.8108108108108109</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="F8">
-        <v>0.7567567567567568</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="G8">
-        <v>0.5675675675675675</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="H8">
-        <v>0.7567567567567568</v>
+        <v>0.6774193548387096</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4472,25 +4808,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8611111111111112</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="C9">
-        <v>0.75</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="D9">
-        <v>0.8611111111111112</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="E9">
-        <v>0.8888888888888888</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="F9">
-        <v>0.8055555555555556</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="G9">
-        <v>0.5833333333333334</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="H9">
-        <v>0.8055555555555556</v>
+        <v>0.7096774193548387</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4498,25 +4834,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7777777777777778</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C10">
-        <v>0.7777777777777778</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="D10">
-        <v>0.7222222222222222</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="E10">
-        <v>0.75</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="F10">
-        <v>0.7222222222222222</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="G10">
-        <v>0.5833333333333334</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="H10">
-        <v>0.8611111111111112</v>
+        <v>0.6451612903225806</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4524,25 +4860,51 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8285714285714286</v>
+        <v>0.7</v>
       </c>
       <c r="C11">
-        <v>0.7714285714285715</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="D11">
-        <v>0.6857142857142857</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="E11">
-        <v>0.6857142857142857</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F11">
-        <v>0.6857142857142857</v>
+        <v>0.7</v>
       </c>
       <c r="G11">
-        <v>0.5714285714285714</v>
+        <v>0.7</v>
       </c>
       <c r="H11">
-        <v>0.6857142857142857</v>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.7426814516129032</v>
+      </c>
+      <c r="C12">
+        <v>0.5731317204301075</v>
+      </c>
+      <c r="D12">
+        <v>0.749247311827957</v>
+      </c>
+      <c r="E12">
+        <v>0.694489247311828</v>
+      </c>
+      <c r="F12">
+        <v>0.7358266129032259</v>
+      </c>
+      <c r="G12">
+        <v>0.7329032258064517</v>
+      </c>
+      <c r="H12">
+        <v>0.6918750000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4550,9 +4912,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4586,25 +4948,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7297297297297297</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C2">
-        <v>0.7837837837837838</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="D2">
-        <v>0.7297297297297297</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="E2">
-        <v>0.7297297297297297</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="F2">
-        <v>0.7027027027027027</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="G2">
-        <v>0.5405405405405406</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="H2">
-        <v>0.7027027027027027</v>
+        <v>0.5789473684210527</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4612,25 +4974,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8108108108108109</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C3">
-        <v>0.7297297297297297</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="D3">
-        <v>0.7027027027027027</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="E3">
-        <v>0.7837837837837838</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="F3">
-        <v>0.7567567567567568</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="G3">
-        <v>0.5405405405405406</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="H3">
-        <v>0.7567567567567568</v>
+        <v>0.7105263157894737</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4638,25 +5000,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7567567567567568</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C4">
-        <v>0.7567567567567568</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="D4">
-        <v>0.7837837837837838</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="E4">
-        <v>0.7027027027027027</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="F4">
-        <v>0.7027027027027027</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="G4">
-        <v>0.5405405405405406</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="H4">
-        <v>0.7567567567567568</v>
+        <v>0.631578947368421</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4664,25 +5026,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.75</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C5">
-        <v>0.75</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="D5">
-        <v>0.75</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="E5">
-        <v>0.6666666666666666</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="F5">
-        <v>0.5555555555555556</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="G5">
-        <v>0.5555555555555556</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="H5">
-        <v>0.75</v>
+        <v>0.6486486486486487</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4690,25 +5052,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8611111111111112</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="C6">
-        <v>0.7777777777777778</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="D6">
-        <v>0.8055555555555556</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="E6">
-        <v>0.8611111111111112</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="F6">
-        <v>0.7777777777777778</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="G6">
-        <v>0.5555555555555556</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="H6">
-        <v>0.8055555555555556</v>
+        <v>0.8918918918918919</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4716,25 +5078,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8611111111111112</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="C7">
-        <v>0.8888888888888888</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="D7">
-        <v>0.8333333333333334</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="E7">
-        <v>0.8611111111111112</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="F7">
-        <v>0.75</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="G7">
-        <v>0.5555555555555556</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="H7">
-        <v>0.75</v>
+        <v>0.7297297297297297</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4742,25 +5104,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6944444444444444</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C8">
-        <v>0.7777777777777778</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="D8">
-        <v>0.7222222222222222</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="E8">
-        <v>0.7777777777777778</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="F8">
-        <v>0.7222222222222222</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="G8">
-        <v>0.5555555555555556</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="H8">
-        <v>0.6666666666666666</v>
+        <v>0.8918918918918919</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4768,25 +5130,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8285714285714286</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C9">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D9">
-        <v>0.8</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="E9">
-        <v>0.8857142857142857</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="F9">
-        <v>0.7714285714285715</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="G9">
-        <v>0.5714285714285714</v>
+        <v>0.75</v>
       </c>
       <c r="H9">
-        <v>0.7714285714285715</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4794,25 +5156,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6571428571428571</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C10">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D10">
-        <v>0.6</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E10">
-        <v>0.7428571428571429</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="F10">
-        <v>0.6857142857142857</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G10">
-        <v>0.5714285714285714</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="H10">
-        <v>0.6571428571428571</v>
+        <v>0.6111111111111112</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4820,617 +5182,51 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7352941176470589</v>
+        <v>0.8</v>
       </c>
       <c r="C11">
-        <v>0.6470588235294118</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D11">
-        <v>0.6176470588235294</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E11">
-        <v>0.6764705882352942</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="F11">
-        <v>0.6470588235294118</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="G11">
-        <v>0.5588235294117647</v>
+        <v>0.8</v>
       </c>
       <c r="H11">
-        <v>0.6764705882352942</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.71875</v>
-      </c>
-      <c r="C2">
-        <v>0.75</v>
-      </c>
-      <c r="D2">
-        <v>0.5625</v>
-      </c>
-      <c r="E2">
-        <v>0.75</v>
-      </c>
-      <c r="F2">
-        <v>0.65625</v>
-      </c>
-      <c r="G2">
-        <v>0.375</v>
-      </c>
-      <c r="H2">
-        <v>0.59375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.78125</v>
-      </c>
-      <c r="C3">
-        <v>0.65625</v>
-      </c>
-      <c r="D3">
-        <v>0.8125</v>
-      </c>
-      <c r="E3">
-        <v>0.84375</v>
-      </c>
-      <c r="F3">
-        <v>0.71875</v>
-      </c>
-      <c r="G3">
-        <v>0.34375</v>
-      </c>
-      <c r="H3">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.6774193548387096</v>
-      </c>
-      <c r="C4">
-        <v>0.7096774193548387</v>
-      </c>
-      <c r="D4">
-        <v>0.6129032258064516</v>
-      </c>
-      <c r="E4">
-        <v>0.7096774193548387</v>
-      </c>
-      <c r="F4">
-        <v>0.7419354838709677</v>
-      </c>
-      <c r="G4">
-        <v>0.5161290322580645</v>
-      </c>
-      <c r="H4">
-        <v>0.6774193548387096</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0.6774193548387096</v>
-      </c>
-      <c r="C5">
-        <v>0.6451612903225806</v>
-      </c>
-      <c r="D5">
-        <v>0.6129032258064516</v>
-      </c>
-      <c r="E5">
-        <v>0.6774193548387096</v>
-      </c>
-      <c r="F5">
-        <v>0.5483870967741935</v>
-      </c>
-      <c r="G5">
-        <v>0.3225806451612903</v>
-      </c>
-      <c r="H5">
-        <v>0.6451612903225806</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0.8709677419354839</v>
-      </c>
-      <c r="C6">
-        <v>0.8709677419354839</v>
-      </c>
-      <c r="D6">
-        <v>0.8064516129032258</v>
-      </c>
-      <c r="E6">
-        <v>0.8387096774193549</v>
-      </c>
-      <c r="F6">
-        <v>0.7741935483870968</v>
-      </c>
-      <c r="G6">
-        <v>0.4516129032258064</v>
-      </c>
-      <c r="H6">
-        <v>0.8064516129032258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0.8064516129032258</v>
-      </c>
-      <c r="C7">
-        <v>0.8387096774193549</v>
-      </c>
-      <c r="D7">
-        <v>0.7096774193548387</v>
-      </c>
-      <c r="E7">
-        <v>0.7096774193548387</v>
-      </c>
-      <c r="F7">
-        <v>0.7096774193548387</v>
-      </c>
-      <c r="G7">
-        <v>0.6451612903225806</v>
-      </c>
-      <c r="H7">
-        <v>0.7419354838709677</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0.7419354838709677</v>
-      </c>
-      <c r="C8">
-        <v>0.7741935483870968</v>
-      </c>
-      <c r="D8">
-        <v>0.7096774193548387</v>
-      </c>
-      <c r="E8">
-        <v>0.7419354838709677</v>
-      </c>
-      <c r="F8">
-        <v>0.7419354838709677</v>
-      </c>
-      <c r="G8">
-        <v>0.4838709677419355</v>
-      </c>
-      <c r="H8">
-        <v>0.6774193548387096</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0.8064516129032258</v>
-      </c>
-      <c r="C9">
-        <v>0.7741935483870968</v>
-      </c>
-      <c r="D9">
-        <v>0.7419354838709677</v>
-      </c>
-      <c r="E9">
-        <v>0.7419354838709677</v>
-      </c>
-      <c r="F9">
-        <v>0.7741935483870968</v>
-      </c>
-      <c r="G9">
-        <v>0.5161290322580645</v>
-      </c>
-      <c r="H9">
-        <v>0.6774193548387096</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0.6451612903225806</v>
-      </c>
-      <c r="C10">
-        <v>0.7096774193548387</v>
-      </c>
-      <c r="D10">
-        <v>0.7096774193548387</v>
-      </c>
-      <c r="E10">
-        <v>0.6451612903225806</v>
-      </c>
-      <c r="F10">
-        <v>0.6774193548387096</v>
-      </c>
-      <c r="G10">
-        <v>0.4193548387096774</v>
-      </c>
-      <c r="H10">
-        <v>0.6451612903225806</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="C11">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="D11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="E11">
-        <v>0.7</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.3666666666666666</v>
-      </c>
-      <c r="H11">
-        <v>0.7333333333333333</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.6578947368421053</v>
-      </c>
-      <c r="C2">
-        <v>0.7631578947368421</v>
-      </c>
-      <c r="D2">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="E2">
-        <v>0.7894736842105263</v>
-      </c>
-      <c r="F2">
-        <v>0.7105263157894737</v>
-      </c>
-      <c r="G2">
-        <v>0.5526315789473685</v>
-      </c>
-      <c r="H2">
-        <v>0.6052631578947368</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.7105263157894737</v>
-      </c>
-      <c r="C3">
-        <v>0.7894736842105263</v>
-      </c>
-      <c r="D3">
-        <v>0.8157894736842105</v>
-      </c>
-      <c r="E3">
-        <v>0.6842105263157895</v>
-      </c>
-      <c r="F3">
-        <v>0.7631578947368421</v>
-      </c>
-      <c r="G3">
-        <v>0.5526315789473685</v>
-      </c>
-      <c r="H3">
-        <v>0.7105263157894737</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="C4">
-        <v>0.5526315789473685</v>
-      </c>
-      <c r="D4">
-        <v>0.6052631578947368</v>
-      </c>
-      <c r="E4">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="F4">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="G4">
-        <v>0.5526315789473685</v>
-      </c>
-      <c r="H4">
-        <v>0.6052631578947368</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0.7567567567567568</v>
-      </c>
-      <c r="C5">
-        <v>0.7567567567567568</v>
-      </c>
-      <c r="D5">
-        <v>0.6756756756756757</v>
-      </c>
-      <c r="E5">
-        <v>0.6756756756756757</v>
-      </c>
-      <c r="F5">
-        <v>0.5945945945945946</v>
-      </c>
-      <c r="G5">
-        <v>0.5675675675675675</v>
-      </c>
-      <c r="H5">
-        <v>0.6756756756756757</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0.8918918918918919</v>
-      </c>
-      <c r="C6">
-        <v>0.7027027027027027</v>
-      </c>
-      <c r="D6">
-        <v>0.8378378378378378</v>
-      </c>
-      <c r="E6">
-        <v>0.8378378378378378</v>
-      </c>
-      <c r="F6">
-        <v>0.7837837837837838</v>
-      </c>
-      <c r="G6">
-        <v>0.5675675675675675</v>
-      </c>
-      <c r="H6">
-        <v>0.8378378378378378</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0.8648648648648649</v>
-      </c>
-      <c r="C7">
-        <v>0.7837837837837838</v>
-      </c>
-      <c r="D7">
-        <v>0.8378378378378378</v>
-      </c>
-      <c r="E7">
-        <v>0.8378378378378378</v>
-      </c>
-      <c r="F7">
-        <v>0.7567567567567568</v>
-      </c>
-      <c r="G7">
-        <v>0.5675675675675675</v>
-      </c>
-      <c r="H7">
-        <v>0.7837837837837838</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0.7297297297297297</v>
-      </c>
-      <c r="C8">
-        <v>0.7027027027027027</v>
-      </c>
-      <c r="D8">
-        <v>0.7027027027027027</v>
-      </c>
-      <c r="E8">
-        <v>0.7837837837837838</v>
-      </c>
-      <c r="F8">
-        <v>0.7567567567567568</v>
-      </c>
-      <c r="G8">
-        <v>0.5675675675675675</v>
-      </c>
-      <c r="H8">
-        <v>0.8648648648648649</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0.7222222222222222</v>
-      </c>
-      <c r="C9">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="D9">
-        <v>0.8055555555555556</v>
-      </c>
-      <c r="E9">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="F9">
-        <v>0.8055555555555556</v>
-      </c>
-      <c r="G9">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="H9">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="C10">
-        <v>0.6944444444444444</v>
-      </c>
-      <c r="D10">
-        <v>0.7222222222222222</v>
-      </c>
-      <c r="E10">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="F10">
-        <v>0.7222222222222222</v>
-      </c>
-      <c r="G10">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="H10">
-        <v>0.6388888888888888</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="C11">
-        <v>0.7428571428571429</v>
-      </c>
-      <c r="D11">
-        <v>0.8285714285714286</v>
-      </c>
-      <c r="E11">
-        <v>0.7428571428571429</v>
-      </c>
-      <c r="F11">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="G11">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="H11">
-        <v>0.7428571428571429</v>
+        <v>0.6857142857142857</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.7674150466255729</v>
+      </c>
+      <c r="C12">
+        <v>0.7649800176115965</v>
+      </c>
+      <c r="D12">
+        <v>0.7761204813836391</v>
+      </c>
+      <c r="E12">
+        <v>0.7568297997245366</v>
+      </c>
+      <c r="F12">
+        <v>0.7755185260448417</v>
+      </c>
+      <c r="G12">
+        <v>0.7404472893946579</v>
+      </c>
+      <c r="H12">
+        <v>0.7213373523899839</v>
       </c>
     </row>
   </sheetData>

--- a/python_module/PosFeature/school_models_score.xlsx
+++ b/python_module/PosFeature/school_models_score.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cpu11790/Documents/ThesisModule/python_module/PosFeature/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCE4653-264E-3547-AF60-3BBF867384C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N" sheetId="1" r:id="rId1"/>
@@ -23,7 +29,7 @@
     <sheet name="T" sheetId="14" r:id="rId14"/>
     <sheet name="X" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -54,8 +60,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +124,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -164,7 +178,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -196,9 +210,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -230,6 +262,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -405,14 +455,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,246 +485,246 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7105263157894737</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="C2">
-        <v>0.7368421052631579</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="D2">
-        <v>0.631578947368421</v>
+        <v>0.63157894736842102</v>
       </c>
       <c r="E2">
-        <v>0.7105263157894737</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="F2">
-        <v>0.7368421052631579</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="G2">
-        <v>0.6578947368421053</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="H2">
-        <v>0.631578947368421</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.63157894736842102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7368421052631579</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="C3">
-        <v>0.7368421052631579</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="D3">
-        <v>0.7105263157894737</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="E3">
-        <v>0.7368421052631579</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="F3">
-        <v>0.6842105263157895</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="G3">
-        <v>0.6842105263157895</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="H3">
-        <v>0.7105263157894737</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>0.71052631578947367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7631578947368421</v>
+        <v>0.76315789473684215</v>
       </c>
       <c r="C4">
-        <v>0.7105263157894737</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="D4">
-        <v>0.7368421052631579</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="E4">
-        <v>0.7631578947368421</v>
+        <v>0.76315789473684215</v>
       </c>
       <c r="F4">
-        <v>0.7368421052631579</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="G4">
-        <v>0.6842105263157895</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="H4">
-        <v>0.7105263157894737</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.65789473684210531</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6756756756756757</v>
+        <v>0.67567567567567566</v>
       </c>
       <c r="C5">
-        <v>0.7027027027027027</v>
+        <v>0.70270270270270274</v>
       </c>
       <c r="D5">
-        <v>0.7027027027027027</v>
+        <v>0.70270270270270274</v>
       </c>
       <c r="E5">
-        <v>0.7027027027027027</v>
+        <v>0.70270270270270274</v>
       </c>
       <c r="F5">
-        <v>0.7027027027027027</v>
+        <v>0.70270270270270274</v>
       </c>
       <c r="G5">
-        <v>0.7297297297297297</v>
+        <v>0.70270270270270274</v>
       </c>
       <c r="H5">
-        <v>0.7297297297297297</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>0.72972972972972971</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8108108108108109</v>
+        <v>0.81081081081081086</v>
       </c>
       <c r="C6">
-        <v>0.7837837837837838</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="D6">
-        <v>0.8918918918918919</v>
+        <v>0.89189189189189189</v>
       </c>
       <c r="E6">
-        <v>0.8918918918918919</v>
+        <v>0.89189189189189189</v>
       </c>
       <c r="F6">
-        <v>0.8378378378378378</v>
+        <v>0.83783783783783783</v>
       </c>
       <c r="G6">
-        <v>0.7567567567567568</v>
+        <v>0.81081081081081086</v>
       </c>
       <c r="H6">
-        <v>0.8918918918918919</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.91891891891891897</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8378378378378378</v>
+        <v>0.83783783783783783</v>
       </c>
       <c r="C7">
-        <v>0.8108108108108109</v>
+        <v>0.81081081081081086</v>
       </c>
       <c r="D7">
-        <v>0.8918918918918919</v>
+        <v>0.89189189189189189</v>
       </c>
       <c r="E7">
-        <v>0.8378378378378378</v>
+        <v>0.83783783783783783</v>
       </c>
       <c r="F7">
-        <v>0.8648648648648649</v>
+        <v>0.86486486486486491</v>
       </c>
       <c r="G7">
-        <v>0.7837837837837838</v>
+        <v>0.83783783783783783</v>
       </c>
       <c r="H7">
-        <v>0.7027027027027027</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.72972972972972971</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7837837837837838</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="C8">
-        <v>0.7027027027027027</v>
+        <v>0.70270270270270274</v>
       </c>
       <c r="D8">
-        <v>0.7837837837837838</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="E8">
         <v>0.7567567567567568</v>
       </c>
       <c r="F8">
-        <v>0.7837837837837838</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="G8">
-        <v>0.8648648648648649</v>
+        <v>0.89189189189189189</v>
       </c>
       <c r="H8">
-        <v>0.7567567567567568</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.67567567567567566</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8611111111111112</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="C9">
-        <v>0.8055555555555556</v>
+        <v>0.80555555555555558</v>
       </c>
       <c r="D9">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E9">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F9">
-        <v>0.8611111111111112</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="G9">
-        <v>0.8055555555555556</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="H9">
-        <v>0.8055555555555556</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6944444444444444</v>
+        <v>0.69444444444444442</v>
       </c>
       <c r="C10">
-        <v>0.8055555555555556</v>
+        <v>0.80555555555555558</v>
       </c>
       <c r="D10">
-        <v>0.7777777777777778</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="E10">
-        <v>0.8055555555555556</v>
+        <v>0.80555555555555558</v>
       </c>
       <c r="F10">
-        <v>0.7777777777777778</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="G10">
-        <v>0.7777777777777778</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="H10">
-        <v>0.7777777777777778</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.80555555555555558</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7428571428571429</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="C11">
         <v>0.8</v>
@@ -689,36 +739,36 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="G11">
-        <v>0.8285714285714286</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="H11">
-        <v>0.6285714285714286</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.65714285714285714</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7617047122310281</v>
+        <v>0.76170471223102809</v>
       </c>
       <c r="C12">
-        <v>0.7595321637426899</v>
+        <v>0.75953216374268995</v>
       </c>
       <c r="D12">
-        <v>0.7760328749802434</v>
+        <v>0.77603287498024343</v>
       </c>
       <c r="E12">
-        <v>0.7752890108153265</v>
+        <v>0.77528901081532653</v>
       </c>
       <c r="F12">
-        <v>0.7700258529205898</v>
+        <v>0.77002585292058978</v>
       </c>
       <c r="G12">
-        <v>0.7573355686513581</v>
+        <v>0.77273284562758249</v>
       </c>
       <c r="H12">
-        <v>0.734561742193321</v>
+        <v>0.73500858000858005</v>
       </c>
     </row>
   </sheetData>
@@ -727,14 +777,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -757,33 +807,33 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C2">
-        <v>0.7222222222222222</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="D2">
-        <v>0.6388888888888888</v>
+        <v>0.63888888888888884</v>
       </c>
       <c r="E2">
-        <v>0.5555555555555556</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="F2">
-        <v>0.6388888888888888</v>
+        <v>0.63888888888888884</v>
       </c>
       <c r="G2">
-        <v>0.6388888888888888</v>
+        <v>0.69444444444444442</v>
       </c>
       <c r="H2">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -791,256 +841,256 @@
         <v>0.6470588235294118</v>
       </c>
       <c r="C3">
-        <v>0.7058823529411765</v>
+        <v>0.70588235294117652</v>
       </c>
       <c r="D3">
-        <v>0.7058823529411765</v>
+        <v>0.70588235294117652</v>
       </c>
       <c r="E3">
-        <v>0.7352941176470589</v>
+        <v>0.73529411764705888</v>
       </c>
       <c r="F3">
-        <v>0.7058823529411765</v>
+        <v>0.70588235294117652</v>
       </c>
       <c r="G3">
-        <v>0.5882352941176471</v>
+        <v>0.58823529411764708</v>
       </c>
       <c r="H3">
-        <v>0.6176470588235294</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>0.58823529411764708</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7647058823529411</v>
+        <v>0.76470588235294112</v>
       </c>
       <c r="C4">
-        <v>0.7352941176470589</v>
+        <v>0.73529411764705888</v>
       </c>
       <c r="D4">
-        <v>0.6764705882352942</v>
+        <v>0.67647058823529416</v>
       </c>
       <c r="E4">
-        <v>0.5882352941176471</v>
+        <v>0.58823529411764708</v>
       </c>
       <c r="F4">
-        <v>0.7941176470588235</v>
+        <v>0.79411764705882348</v>
       </c>
       <c r="G4">
-        <v>0.6470588235294118</v>
+        <v>0.70588235294117652</v>
       </c>
       <c r="H4">
-        <v>0.6470588235294118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.67647058823529416</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.696969696969697</v>
+        <v>0.69696969696969702</v>
       </c>
       <c r="C5">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D5">
-        <v>0.7272727272727273</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="E5">
-        <v>0.7272727272727273</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G5">
-        <v>0.6666666666666666</v>
+        <v>0.69696969696969702</v>
       </c>
       <c r="H5">
-        <v>0.696969696969697</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8787878787878788</v>
+        <v>0.87878787878787878</v>
       </c>
       <c r="C6">
-        <v>0.8484848484848485</v>
+        <v>0.84848484848484851</v>
       </c>
       <c r="D6">
-        <v>0.9090909090909091</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="E6">
-        <v>0.7878787878787878</v>
+        <v>0.78787878787878785</v>
       </c>
       <c r="F6">
-        <v>0.7878787878787878</v>
+        <v>0.78787878787878785</v>
       </c>
       <c r="G6">
-        <v>0.8787878787878788</v>
+        <v>0.84848484848484851</v>
       </c>
       <c r="H6">
-        <v>0.8787878787878788</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.90909090909090906</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8484848484848485</v>
+        <v>0.84848484848484851</v>
       </c>
       <c r="C7">
-        <v>0.8181818181818182</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="D7">
-        <v>0.9090909090909091</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="E7">
-        <v>0.7878787878787878</v>
+        <v>0.78787878787878785</v>
       </c>
       <c r="F7">
-        <v>0.8484848484848485</v>
+        <v>0.84848484848484851</v>
       </c>
       <c r="G7">
-        <v>0.9090909090909091</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="H7">
-        <v>0.7575757575757576</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.78787878787878785</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7575757575757576</v>
+        <v>0.75757575757575757</v>
       </c>
       <c r="C8">
-        <v>0.7575757575757576</v>
+        <v>0.75757575757575757</v>
       </c>
       <c r="D8">
-        <v>0.7272727272727273</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="E8">
-        <v>0.7272727272727273</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="F8">
-        <v>0.7272727272727273</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="G8">
-        <v>0.696969696969697</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H8">
-        <v>0.6060606060606061</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.63636363636363635</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8181818181818182</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="C9">
-        <v>0.8181818181818182</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="D9">
-        <v>0.8787878787878788</v>
+        <v>0.87878787878787878</v>
       </c>
       <c r="E9">
-        <v>0.7878787878787878</v>
+        <v>0.78787878787878785</v>
       </c>
       <c r="F9">
-        <v>0.7878787878787878</v>
+        <v>0.78787878787878785</v>
       </c>
       <c r="G9">
-        <v>0.7878787878787878</v>
+        <v>0.75757575757575757</v>
       </c>
       <c r="H9">
-        <v>0.7878787878787878</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.84848484848484851</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.696969696969697</v>
+        <v>0.69696969696969702</v>
       </c>
       <c r="C10">
-        <v>0.7272727272727273</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="D10">
-        <v>0.6363636363636364</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="E10">
-        <v>0.6060606060606061</v>
+        <v>0.60606060606060608</v>
       </c>
       <c r="F10">
-        <v>0.6363636363636364</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="G10">
-        <v>0.7575757575757576</v>
+        <v>0.75757575757575757</v>
       </c>
       <c r="H10">
-        <v>0.696969696969697</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.69696969696969702</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7575757575757576</v>
+        <v>0.75757575757575757</v>
       </c>
       <c r="C11">
-        <v>0.7878787878787878</v>
+        <v>0.78787878787878785</v>
       </c>
       <c r="D11">
-        <v>0.7272727272727273</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="E11">
-        <v>0.696969696969697</v>
+        <v>0.69696969696969702</v>
       </c>
       <c r="F11">
-        <v>0.7272727272727273</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="G11">
-        <v>0.696969696969697</v>
+        <v>0.75757575757575757</v>
       </c>
       <c r="H11">
-        <v>0.5151515151515151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7532976827094474</v>
+        <v>0.75329768270944741</v>
       </c>
       <c r="C12">
-        <v>0.7587641117052881</v>
+        <v>0.75876411170528812</v>
       </c>
       <c r="D12">
-        <v>0.7536393345216875</v>
+        <v>0.75363933452168752</v>
       </c>
       <c r="E12">
-        <v>0.7000297088532383</v>
+        <v>0.70002970885323834</v>
       </c>
       <c r="F12">
-        <v>0.7320707070707071</v>
+        <v>0.73207070707070709</v>
       </c>
       <c r="G12">
-        <v>0.7268122400475342</v>
+        <v>0.72915923945335714</v>
       </c>
       <c r="H12">
-        <v>0.6787433155080216</v>
+        <v>0.7022281639928698</v>
       </c>
     </row>
   </sheetData>
@@ -1049,14 +1099,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1079,73 +1129,73 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7027027027027027</v>
+        <v>0.70270270270270274</v>
       </c>
       <c r="C2">
-        <v>0.6486486486486487</v>
+        <v>0.64864864864864868</v>
       </c>
       <c r="D2">
-        <v>0.7837837837837838</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="E2">
-        <v>0.6486486486486487</v>
+        <v>0.64864864864864868</v>
       </c>
       <c r="F2">
-        <v>0.7297297297297297</v>
+        <v>0.72972972972972971</v>
       </c>
       <c r="G2">
-        <v>0.6756756756756757</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="H2">
-        <v>0.6756756756756757</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.6216216216216216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7297297297297297</v>
+        <v>0.72972972972972971</v>
       </c>
       <c r="C3">
-        <v>0.5405405405405406</v>
+        <v>0.54054054054054057</v>
       </c>
       <c r="D3">
-        <v>0.6486486486486487</v>
+        <v>0.64864864864864868</v>
       </c>
       <c r="E3">
         <v>0.6216216216216216</v>
       </c>
       <c r="F3">
-        <v>0.7027027027027027</v>
+        <v>0.70270270270270274</v>
       </c>
       <c r="G3">
-        <v>0.7567567567567568</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="H3">
-        <v>0.6756756756756757</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>0.64864864864864868</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C4">
-        <v>0.8055555555555556</v>
+        <v>0.80555555555555558</v>
       </c>
       <c r="D4">
-        <v>0.7777777777777778</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="E4">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F4">
         <v>0.75</v>
@@ -1154,145 +1204,145 @@
         <v>0.75</v>
       </c>
       <c r="H4">
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6944444444444444</v>
+        <v>0.69444444444444442</v>
       </c>
       <c r="C5">
-        <v>0.7222222222222222</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="D5">
         <v>0.75</v>
       </c>
       <c r="E5">
-        <v>0.7222222222222222</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G5">
-        <v>0.7777777777777778</v>
+        <v>0.80555555555555558</v>
       </c>
       <c r="H5">
-        <v>0.6944444444444444</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>0.69444444444444442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8611111111111112</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="C6">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D6">
-        <v>0.8888888888888888</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="E6">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F6">
-        <v>0.8055555555555556</v>
+        <v>0.80555555555555558</v>
       </c>
       <c r="G6">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="H6">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8611111111111112</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="C7">
         <v>0.75</v>
       </c>
       <c r="D7">
-        <v>0.9166666666666666</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E7">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F7">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G7">
-        <v>0.6666666666666666</v>
+        <v>0.69444444444444442</v>
       </c>
       <c r="H7">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.72222222222222221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8055555555555556</v>
+        <v>0.80555555555555558</v>
       </c>
       <c r="C8">
-        <v>0.7222222222222222</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="D8">
-        <v>0.7777777777777778</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="E8">
-        <v>0.6388888888888888</v>
+        <v>0.63888888888888884</v>
       </c>
       <c r="F8">
-        <v>0.7222222222222222</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="G8">
-        <v>0.6944444444444444</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="H8">
-        <v>0.5555555555555556</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7428571428571429</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="C9">
-        <v>0.6857142857142857</v>
+        <v>0.68571428571428572</v>
       </c>
       <c r="D9">
-        <v>0.7714285714285715</v>
+        <v>0.77142857142857146</v>
       </c>
       <c r="E9">
-        <v>0.6285714285714286</v>
+        <v>0.62857142857142856</v>
       </c>
       <c r="F9">
         <v>0.8</v>
       </c>
       <c r="G9">
-        <v>0.7142857142857143</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="H9">
-        <v>0.7142857142857143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.77142857142857146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8285714285714286</v>
+        <v>0.82857142857142863</v>
       </c>
       <c r="C10">
         <v>0.8</v>
@@ -1301,68 +1351,68 @@
         <v>0.8</v>
       </c>
       <c r="E10">
-        <v>0.7714285714285715</v>
+        <v>0.77142857142857146</v>
       </c>
       <c r="F10">
-        <v>0.7714285714285715</v>
+        <v>0.77142857142857146</v>
       </c>
       <c r="G10">
-        <v>0.7714285714285715</v>
+        <v>0.8</v>
       </c>
       <c r="H10">
-        <v>0.6857142857142857</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.68571428571428572</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6285714285714286</v>
+        <v>0.62857142857142856</v>
       </c>
       <c r="C11">
-        <v>0.7428571428571429</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="D11">
         <v>0.8</v>
       </c>
       <c r="E11">
-        <v>0.6571428571428571</v>
+        <v>0.65714285714285714</v>
       </c>
       <c r="F11">
-        <v>0.7428571428571429</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="G11">
-        <v>0.8285714285714286</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H11">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.62857142857142856</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7687987987987988</v>
+        <v>0.76879879879879875</v>
       </c>
       <c r="C12">
-        <v>0.7251093951093951</v>
+        <v>0.72510939510939509</v>
       </c>
       <c r="D12">
-        <v>0.7914972114972114</v>
+        <v>0.79149721149721142</v>
       </c>
       <c r="E12">
-        <v>0.6855190905190905</v>
+        <v>0.68551909051909055</v>
       </c>
       <c r="F12">
-        <v>0.7524495924495924</v>
+        <v>0.75244959244959242</v>
       </c>
       <c r="G12">
-        <v>0.7468940368940368</v>
+        <v>0.7361497211497211</v>
       </c>
       <c r="H12">
-        <v>0.6768018018018018</v>
+        <v>0.67726512226512237</v>
       </c>
     </row>
   </sheetData>
@@ -1371,14 +1421,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1401,189 +1451,189 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6578947368421053</v>
+        <v>0.65789473684210531</v>
       </c>
       <c r="C2">
-        <v>0.6842105263157895</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="D2">
-        <v>0.6578947368421053</v>
+        <v>0.65789473684210531</v>
       </c>
       <c r="E2">
-        <v>0.6578947368421053</v>
+        <v>0.65789473684210531</v>
       </c>
       <c r="F2">
-        <v>0.7368421052631579</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="G2">
-        <v>0.6578947368421053</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="H2">
-        <v>0.6842105263157895</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7631578947368421</v>
+        <v>0.76315789473684215</v>
       </c>
       <c r="C3">
-        <v>0.7105263157894737</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="D3">
-        <v>0.6842105263157895</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="E3">
-        <v>0.7105263157894737</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="F3">
-        <v>0.7368421052631579</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="G3">
-        <v>0.8421052631578947</v>
+        <v>0.81578947368421051</v>
       </c>
       <c r="H3">
-        <v>0.6842105263157895</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>0.68421052631578949</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7368421052631579</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="C4">
-        <v>0.6578947368421053</v>
+        <v>0.65789473684210531</v>
       </c>
       <c r="D4">
-        <v>0.7105263157894737</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="E4">
-        <v>0.7105263157894737</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="F4">
-        <v>0.7368421052631579</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="G4">
-        <v>0.8421052631578947</v>
+        <v>0.78947368421052633</v>
       </c>
       <c r="H4">
-        <v>0.7894736842105263</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.78947368421052633</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7027027027027027</v>
+        <v>0.70270270270270274</v>
       </c>
       <c r="C5">
-        <v>0.6486486486486487</v>
+        <v>0.64864864864864868</v>
       </c>
       <c r="D5">
-        <v>0.7297297297297297</v>
+        <v>0.72972972972972971</v>
       </c>
       <c r="E5">
         <v>0.6216216216216216</v>
       </c>
       <c r="F5">
-        <v>0.6486486486486487</v>
+        <v>0.64864864864864868</v>
       </c>
       <c r="G5">
-        <v>0.6486486486486487</v>
+        <v>0.67567567567567566</v>
       </c>
       <c r="H5">
-        <v>0.6486486486486487</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>0.67567567567567566</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8108108108108109</v>
+        <v>0.81081081081081086</v>
       </c>
       <c r="C6">
         <v>0.7567567567567568</v>
       </c>
       <c r="D6">
-        <v>0.8648648648648649</v>
+        <v>0.86486486486486491</v>
       </c>
       <c r="E6">
         <v>0.7567567567567568</v>
       </c>
       <c r="F6">
-        <v>0.7837837837837838</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="G6">
-        <v>0.8378378378378378</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="H6">
-        <v>0.7297297297297297</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.7567567567567568</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8108108108108109</v>
+        <v>0.81081081081081086</v>
       </c>
       <c r="C7">
-        <v>0.7297297297297297</v>
+        <v>0.72972972972972971</v>
       </c>
       <c r="D7">
-        <v>0.8108108108108109</v>
+        <v>0.81081081081081086</v>
       </c>
       <c r="E7">
-        <v>0.8108108108108109</v>
+        <v>0.81081081081081086</v>
       </c>
       <c r="F7">
-        <v>0.8378378378378378</v>
+        <v>0.83783783783783783</v>
       </c>
       <c r="G7">
-        <v>0.7027027027027027</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="H7">
-        <v>0.7837837837837838</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.81081081081081086</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7837837837837838</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="C8">
-        <v>0.8108108108108109</v>
+        <v>0.81081081081081086</v>
       </c>
       <c r="D8">
-        <v>0.7837837837837838</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="E8">
-        <v>0.7837837837837838</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="F8">
-        <v>0.7297297297297297</v>
+        <v>0.72972972972972971</v>
       </c>
       <c r="G8">
-        <v>0.7297297297297297</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="H8">
-        <v>0.7837837837837838</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.81081081081081086</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1591,7 +1641,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="C9">
-        <v>0.8857142857142857</v>
+        <v>0.88571428571428568</v>
       </c>
       <c r="D9">
         <v>0.8571428571428571</v>
@@ -1600,47 +1650,47 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="F9">
-        <v>0.8857142857142857</v>
+        <v>0.88571428571428568</v>
       </c>
       <c r="G9">
-        <v>0.8285714285714286</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H9">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7714285714285715</v>
+        <v>0.77142857142857146</v>
       </c>
       <c r="C10">
-        <v>0.6857142857142857</v>
+        <v>0.68571428571428572</v>
       </c>
       <c r="D10">
-        <v>0.7428571428571429</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="E10">
-        <v>0.6857142857142857</v>
+        <v>0.68571428571428572</v>
       </c>
       <c r="F10">
         <v>0.7142857142857143</v>
       </c>
       <c r="G10">
-        <v>0.8285714285714286</v>
+        <v>0.8</v>
       </c>
       <c r="H10">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8285714285714286</v>
+        <v>0.82857142857142863</v>
       </c>
       <c r="C11">
         <v>0.8</v>
@@ -1658,33 +1708,33 @@
         <v>0.8</v>
       </c>
       <c r="H11">
-        <v>0.7714285714285715</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.772314570209307</v>
+        <v>0.77231457020930705</v>
       </c>
       <c r="C12">
-        <v>0.7370006096321886</v>
+        <v>0.73700060963218861</v>
       </c>
       <c r="D12">
         <v>0.7641820768136558</v>
       </c>
       <c r="E12">
-        <v>0.7309063198536883</v>
+        <v>0.73090631985368826</v>
       </c>
       <c r="F12">
-        <v>0.7524812030075189</v>
+        <v>0.75248120300751886</v>
       </c>
       <c r="G12">
-        <v>0.771816703921967</v>
+        <v>0.77466165413533827</v>
       </c>
       <c r="H12">
-        <v>0.7475269254216622</v>
+        <v>0.76472871367608208</v>
       </c>
     </row>
   </sheetData>
@@ -1693,14 +1743,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1723,163 +1773,163 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7894736842105263</v>
+        <v>0.78947368421052633</v>
       </c>
       <c r="C2">
-        <v>0.6842105263157895</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="D2">
-        <v>0.6842105263157895</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="E2">
-        <v>0.7105263157894737</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="F2">
-        <v>0.7105263157894737</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="G2">
-        <v>0.6842105263157895</v>
+        <v>0.65789473684210531</v>
       </c>
       <c r="H2">
-        <v>0.7631578947368421</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.71052631578947367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8157894736842105</v>
+        <v>0.81578947368421051</v>
       </c>
       <c r="C3">
-        <v>0.6842105263157895</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="D3">
-        <v>0.7105263157894737</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="E3">
-        <v>0.631578947368421</v>
+        <v>0.63157894736842102</v>
       </c>
       <c r="F3">
-        <v>0.7631578947368421</v>
+        <v>0.76315789473684215</v>
       </c>
       <c r="G3">
-        <v>0.7368421052631579</v>
+        <v>0.78947368421052633</v>
       </c>
       <c r="H3">
-        <v>0.8157894736842105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>0.84210526315789469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7631578947368421</v>
+        <v>0.76315789473684215</v>
       </c>
       <c r="C4">
-        <v>0.7894736842105263</v>
+        <v>0.78947368421052633</v>
       </c>
       <c r="D4">
-        <v>0.7105263157894737</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="E4">
-        <v>0.6842105263157895</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="F4">
-        <v>0.7631578947368421</v>
+        <v>0.76315789473684215</v>
       </c>
       <c r="G4">
-        <v>0.6842105263157895</v>
+        <v>0.76315789473684215</v>
       </c>
       <c r="H4">
-        <v>0.7105263157894737</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.71052631578947367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7027027027027027</v>
+        <v>0.70270270270270274</v>
       </c>
       <c r="C5">
-        <v>0.6486486486486487</v>
+        <v>0.64864864864864868</v>
       </c>
       <c r="D5">
-        <v>0.7297297297297297</v>
+        <v>0.72972972972972971</v>
       </c>
       <c r="E5">
-        <v>0.3243243243243243</v>
+        <v>0.32432432432432429</v>
       </c>
       <c r="F5">
-        <v>0.7297297297297297</v>
+        <v>0.72972972972972971</v>
       </c>
       <c r="G5">
-        <v>0.6216216216216216</v>
+        <v>0.67567567567567566</v>
       </c>
       <c r="H5">
-        <v>0.5945945945945946</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>0.59459459459459463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7777777777777778</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="C6">
-        <v>0.8611111111111112</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="D6">
-        <v>0.8055555555555556</v>
+        <v>0.80555555555555558</v>
       </c>
       <c r="E6">
-        <v>0.7222222222222222</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="F6">
-        <v>0.8611111111111112</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="G6">
-        <v>0.7777777777777778</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="H6">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8611111111111112</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="C7">
         <v>0.75</v>
       </c>
       <c r="D7">
-        <v>0.8888888888888888</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="E7">
-        <v>0.6111111111111112</v>
+        <v>0.61111111111111116</v>
       </c>
       <c r="F7">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G7">
-        <v>0.8055555555555556</v>
+        <v>0.80555555555555558</v>
       </c>
       <c r="H7">
-        <v>0.6111111111111112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.72222222222222221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1893,56 +1943,56 @@
         <v>0.8</v>
       </c>
       <c r="E8">
-        <v>0.6571428571428571</v>
+        <v>0.65714285714285714</v>
       </c>
       <c r="F8">
         <v>0.8</v>
       </c>
       <c r="G8">
-        <v>0.8</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H8">
-        <v>0.6857142857142857</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.65714285714285714</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8857142857142857</v>
+        <v>0.88571428571428568</v>
       </c>
       <c r="C9">
         <v>0.8571428571428571</v>
       </c>
       <c r="D9">
-        <v>0.8857142857142857</v>
+        <v>0.88571428571428568</v>
       </c>
       <c r="E9">
-        <v>0.6571428571428571</v>
+        <v>0.65714285714285714</v>
       </c>
       <c r="F9">
-        <v>0.8285714285714286</v>
+        <v>0.82857142857142863</v>
       </c>
       <c r="G9">
-        <v>0.9142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H9">
-        <v>0.8285714285714286</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.77142857142857146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7428571428571429</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="C10">
-        <v>0.6571428571428571</v>
+        <v>0.65714285714285714</v>
       </c>
       <c r="D10">
-        <v>0.7714285714285715</v>
+        <v>0.77142857142857146</v>
       </c>
       <c r="E10">
         <v>0.6</v>
@@ -1951,13 +2001,13 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="G10">
-        <v>0.7428571428571429</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="H10">
-        <v>0.6571428571428571</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.65714285714285714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1965,48 +2015,48 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="C11">
-        <v>0.7714285714285715</v>
+        <v>0.77142857142857146</v>
       </c>
       <c r="D11">
-        <v>0.7428571428571429</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="E11">
-        <v>0.6571428571428571</v>
+        <v>0.65714285714285714</v>
       </c>
       <c r="F11">
         <v>0.7142857142857143</v>
       </c>
       <c r="G11">
-        <v>0.7714285714285715</v>
+        <v>0.77142857142857146</v>
       </c>
       <c r="H11">
-        <v>0.7428571428571429</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7852869787080313</v>
+        <v>0.78528697870803132</v>
       </c>
       <c r="C12">
         <v>0.7503368782316151</v>
       </c>
       <c r="D12">
-        <v>0.7729437332068911</v>
+        <v>0.77294373320689114</v>
       </c>
       <c r="E12">
-        <v>0.6255402018559914</v>
+        <v>0.62554020185599135</v>
       </c>
       <c r="F12">
-        <v>0.7718159136580189</v>
+        <v>0.77181591365801894</v>
       </c>
       <c r="G12">
-        <v>0.753878954142112</v>
+        <v>0.7610805166068324</v>
       </c>
       <c r="H12">
-        <v>0.7159465104201946</v>
+        <v>0.7157752489331437</v>
       </c>
     </row>
   </sheetData>
@@ -2015,14 +2065,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2045,111 +2095,111 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6896551724137931</v>
+        <v>0.68965517241379315</v>
       </c>
       <c r="C2">
-        <v>0.6551724137931034</v>
+        <v>0.65517241379310343</v>
       </c>
       <c r="D2">
-        <v>0.6551724137931034</v>
+        <v>0.65517241379310343</v>
       </c>
       <c r="E2">
-        <v>0.6551724137931034</v>
+        <v>0.65517241379310343</v>
       </c>
       <c r="F2">
-        <v>0.6896551724137931</v>
+        <v>0.68965517241379315</v>
       </c>
       <c r="G2">
-        <v>0.5862068965517241</v>
+        <v>0.65517241379310343</v>
       </c>
       <c r="H2">
-        <v>0.5862068965517241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.62068965517241381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6206896551724138</v>
+        <v>0.62068965517241381</v>
       </c>
       <c r="C3">
-        <v>0.6551724137931034</v>
+        <v>0.65517241379310343</v>
       </c>
       <c r="D3">
-        <v>0.5517241379310345</v>
+        <v>0.55172413793103448</v>
       </c>
       <c r="E3">
-        <v>0.4482758620689655</v>
+        <v>0.44827586206896552</v>
       </c>
       <c r="F3">
-        <v>0.7241379310344828</v>
+        <v>0.72413793103448276</v>
       </c>
       <c r="G3">
-        <v>0.5517241379310345</v>
+        <v>0.58620689655172409</v>
       </c>
       <c r="H3">
-        <v>0.4137931034482759</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>0.41379310344827591</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7241379310344828</v>
+        <v>0.72413793103448276</v>
       </c>
       <c r="C4">
-        <v>0.6551724137931034</v>
+        <v>0.65517241379310343</v>
       </c>
       <c r="D4">
-        <v>0.8620689655172413</v>
+        <v>0.86206896551724133</v>
       </c>
       <c r="E4">
-        <v>0.7586206896551724</v>
+        <v>0.75862068965517238</v>
       </c>
       <c r="F4">
-        <v>0.7586206896551724</v>
+        <v>0.75862068965517238</v>
       </c>
       <c r="G4">
-        <v>0.6206896551724138</v>
+        <v>0.62068965517241381</v>
       </c>
       <c r="H4">
-        <v>0.5517241379310345</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.51724137931034486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5172413793103449</v>
+        <v>0.51724137931034486</v>
       </c>
       <c r="C5">
-        <v>0.6551724137931034</v>
+        <v>0.65517241379310343</v>
       </c>
       <c r="D5">
-        <v>0.5862068965517241</v>
+        <v>0.58620689655172409</v>
       </c>
       <c r="E5">
-        <v>0.4137931034482759</v>
+        <v>0.41379310344827591</v>
       </c>
       <c r="F5">
-        <v>0.5517241379310345</v>
+        <v>0.55172413793103448</v>
       </c>
       <c r="G5">
-        <v>0.5517241379310345</v>
+        <v>0.55172413793103448</v>
       </c>
       <c r="H5">
-        <v>0.5862068965517241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>0.51724137931034486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2169,13 +2219,13 @@
         <v>0.6428571428571429</v>
       </c>
       <c r="G6">
-        <v>0.6071428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="H6">
-        <v>0.7142857142857143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.6428571428571429</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2195,39 +2245,39 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="G7">
-        <v>0.6071428571428571</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="H7">
-        <v>0.7142857142857143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7777777777777778</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="C8">
-        <v>0.5925925925925926</v>
+        <v>0.59259259259259256</v>
       </c>
       <c r="D8">
         <v>0.7407407407407407</v>
       </c>
       <c r="E8">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F8">
-        <v>0.7037037037037037</v>
+        <v>0.70370370370370372</v>
       </c>
       <c r="G8">
-        <v>0.7037037037037037</v>
+        <v>0.59259259259259256</v>
       </c>
       <c r="H8">
-        <v>0.7037037037037037</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.70370370370370372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2235,100 +2285,100 @@
         <v>0.7407407407407407</v>
       </c>
       <c r="C9">
-        <v>0.6296296296296297</v>
+        <v>0.62962962962962965</v>
       </c>
       <c r="D9">
         <v>0.7407407407407407</v>
       </c>
       <c r="E9">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F9">
         <v>0.7407407407407407</v>
       </c>
       <c r="G9">
-        <v>0.7037037037037037</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="H9">
-        <v>0.6296296296296297</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.70370370370370372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6538461538461539</v>
+        <v>0.65384615384615385</v>
       </c>
       <c r="C10">
-        <v>0.7307692307692307</v>
+        <v>0.73076923076923073</v>
       </c>
       <c r="D10">
-        <v>0.6923076923076923</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="E10">
-        <v>0.6153846153846154</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="F10">
-        <v>0.7692307692307693</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="G10">
-        <v>0.7307692307692307</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="H10">
-        <v>0.6923076923076923</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.65384615384615385</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6153846153846154</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="C11">
-        <v>0.5769230769230769</v>
+        <v>0.57692307692307687</v>
       </c>
       <c r="D11">
-        <v>0.6153846153846154</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="E11">
-        <v>0.6153846153846154</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="F11">
-        <v>0.6538461538461539</v>
+        <v>0.65384615384615385</v>
       </c>
       <c r="G11">
-        <v>0.6538461538461539</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="H11">
-        <v>0.5769230769230769</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.57692307692307687</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6768044854251751</v>
+        <v>0.67680448542517513</v>
       </c>
       <c r="C12">
-        <v>0.6614889899372658</v>
+        <v>0.66148898993726579</v>
       </c>
       <c r="D12">
-        <v>0.6944346202966892</v>
+        <v>0.69443462029668923</v>
       </c>
       <c r="E12">
-        <v>0.6161393204496652</v>
+        <v>0.61613932044966524</v>
       </c>
       <c r="F12">
-        <v>0.6948802155698708</v>
+        <v>0.69488021556987078</v>
       </c>
       <c r="G12">
-        <v>0.6316653333894713</v>
+        <v>0.66385590782142501</v>
       </c>
       <c r="H12">
-        <v>0.616906656561829</v>
+        <v>0.60999992982751605</v>
       </c>
     </row>
   </sheetData>
@@ -2337,14 +2387,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2367,111 +2417,111 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5925925925925926</v>
+        <v>0.59259259259259256</v>
       </c>
       <c r="C2">
-        <v>0.4444444444444444</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="D2">
-        <v>0.7037037037037037</v>
+        <v>0.70370370370370372</v>
       </c>
       <c r="E2">
-        <v>0.6296296296296297</v>
+        <v>0.62962962962962965</v>
       </c>
       <c r="F2">
-        <v>0.6296296296296297</v>
+        <v>0.62962962962962965</v>
       </c>
       <c r="G2">
-        <v>0.6666666666666666</v>
+        <v>0.59259259259259256</v>
       </c>
       <c r="H2">
-        <v>0.7407407407407407</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.70370370370370372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6153846153846154</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="C3">
         <v>0.5</v>
       </c>
       <c r="D3">
-        <v>0.6923076923076923</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="E3">
-        <v>0.6153846153846154</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="F3">
-        <v>0.6538461538461539</v>
+        <v>0.65384615384615385</v>
       </c>
       <c r="G3">
-        <v>0.6923076923076923</v>
+        <v>0.73076923076923073</v>
       </c>
       <c r="H3">
-        <v>0.6153846153846154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>0.57692307692307687</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6923076923076923</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="C4">
-        <v>0.2692307692307692</v>
+        <v>0.26923076923076922</v>
       </c>
       <c r="D4">
-        <v>0.6538461538461539</v>
+        <v>0.65384615384615385</v>
       </c>
       <c r="E4">
-        <v>0.6923076923076923</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="F4">
-        <v>0.7692307692307693</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="G4">
-        <v>0.6538461538461539</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="H4">
-        <v>0.6538461538461539</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.65384615384615385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6153846153846154</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="C5">
-        <v>0.3846153846153846</v>
+        <v>0.38461538461538458</v>
       </c>
       <c r="D5">
-        <v>0.6538461538461539</v>
+        <v>0.65384615384615385</v>
       </c>
       <c r="E5">
-        <v>0.5384615384615384</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="F5">
-        <v>0.5384615384615384</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="G5">
-        <v>0.6538461538461539</v>
+        <v>0.57692307692307687</v>
       </c>
       <c r="H5">
-        <v>0.6538461538461539</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>0.69230769230769229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2488,16 +2538,16 @@
         <v>0.52</v>
       </c>
       <c r="F6">
-        <v>0.5600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="G6">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="H6">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2517,13 +2567,13 @@
         <v>0.68</v>
       </c>
       <c r="G7">
-        <v>0.52</v>
+        <v>0.6</v>
       </c>
       <c r="H7">
-        <v>0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2543,13 +2593,13 @@
         <v>0.64</v>
       </c>
       <c r="G8">
-        <v>0.72</v>
+        <v>0.6</v>
       </c>
       <c r="H8">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2569,13 +2619,13 @@
         <v>0.68</v>
       </c>
       <c r="G9">
-        <v>0.64</v>
+        <v>0.48</v>
       </c>
       <c r="H9">
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2583,7 +2633,7 @@
         <v>0.68</v>
       </c>
       <c r="C10">
-        <v>0.5600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D10">
         <v>0.64</v>
@@ -2595,18 +2645,18 @@
         <v>0.6</v>
       </c>
       <c r="G10">
-        <v>0.72</v>
+        <v>0.6</v>
       </c>
       <c r="H10">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C11">
         <v>0.48</v>
@@ -2621,36 +2671,36 @@
         <v>0.6</v>
       </c>
       <c r="G11">
-        <v>0.5600000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="H11">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6395669515669515</v>
+        <v>0.63956695156695154</v>
       </c>
       <c r="C12">
-        <v>0.4078290598290598</v>
+        <v>0.40782905982905981</v>
       </c>
       <c r="D12">
-        <v>0.6623703703703703</v>
+        <v>0.66237037037037028</v>
       </c>
       <c r="E12">
-        <v>0.5675783475783476</v>
+        <v>0.56757834757834758</v>
       </c>
       <c r="F12">
-        <v>0.6351168091168091</v>
+        <v>0.63511680911680912</v>
       </c>
       <c r="G12">
-        <v>0.6506666666666666</v>
+        <v>0.61156695156695151</v>
       </c>
       <c r="H12">
-        <v>0.6423817663817664</v>
+        <v>0.65067806267806261</v>
       </c>
     </row>
   </sheetData>
@@ -2659,14 +2709,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2689,163 +2739,163 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7105263157894737</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="C2">
-        <v>0.631578947368421</v>
+        <v>0.63157894736842102</v>
       </c>
       <c r="D2">
-        <v>0.6052631578947368</v>
+        <v>0.60526315789473684</v>
       </c>
       <c r="E2">
-        <v>0.7368421052631579</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="F2">
-        <v>0.7631578947368421</v>
+        <v>0.76315789473684215</v>
       </c>
       <c r="G2">
-        <v>0.6578947368421053</v>
+        <v>0.65789473684210531</v>
       </c>
       <c r="H2">
-        <v>0.631578947368421</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.68421052631578949</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7368421052631579</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="C3">
-        <v>0.6842105263157895</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="D3">
-        <v>0.6842105263157895</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="E3">
-        <v>0.7368421052631579</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="F3">
-        <v>0.7631578947368421</v>
+        <v>0.76315789473684215</v>
       </c>
       <c r="G3">
-        <v>0.631578947368421</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="H3">
-        <v>0.6842105263157895</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>0.68421052631578949</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7105263157894737</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="C4">
-        <v>0.8157894736842105</v>
+        <v>0.81578947368421051</v>
       </c>
       <c r="D4">
-        <v>0.7631578947368421</v>
+        <v>0.76315789473684215</v>
       </c>
       <c r="E4">
-        <v>0.7894736842105263</v>
+        <v>0.78947368421052633</v>
       </c>
       <c r="F4">
-        <v>0.7368421052631579</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="G4">
-        <v>0.7105263157894737</v>
+        <v>0.76315789473684215</v>
       </c>
       <c r="H4">
-        <v>0.6842105263157895</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.68421052631578949</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6756756756756757</v>
+        <v>0.67567567567567566</v>
       </c>
       <c r="C5">
-        <v>0.7027027027027027</v>
+        <v>0.70270270270270274</v>
       </c>
       <c r="D5">
-        <v>0.7027027027027027</v>
+        <v>0.70270270270270274</v>
       </c>
       <c r="E5">
-        <v>0.7297297297297297</v>
+        <v>0.72972972972972971</v>
       </c>
       <c r="F5">
-        <v>0.7297297297297297</v>
+        <v>0.72972972972972971</v>
       </c>
       <c r="G5">
-        <v>0.7027027027027027</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="H5">
-        <v>0.6756756756756757</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>0.67567567567567566</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8648648648648649</v>
+        <v>0.86486486486486491</v>
       </c>
       <c r="C6">
-        <v>0.8648648648648649</v>
+        <v>0.86486486486486491</v>
       </c>
       <c r="D6">
-        <v>0.8918918918918919</v>
+        <v>0.89189189189189189</v>
       </c>
       <c r="E6">
-        <v>0.8918918918918919</v>
+        <v>0.89189189189189189</v>
       </c>
       <c r="F6">
-        <v>0.8648648648648649</v>
+        <v>0.86486486486486491</v>
       </c>
       <c r="G6">
-        <v>0.8108108108108109</v>
+        <v>0.89189189189189189</v>
       </c>
       <c r="H6">
-        <v>0.8648648648648649</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.83783783783783783</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8918918918918919</v>
+        <v>0.89189189189189189</v>
       </c>
       <c r="C7">
-        <v>0.8108108108108109</v>
+        <v>0.81081081081081086</v>
       </c>
       <c r="D7">
-        <v>0.918918918918919</v>
+        <v>0.91891891891891897</v>
       </c>
       <c r="E7">
-        <v>0.8918918918918919</v>
+        <v>0.89189189189189189</v>
       </c>
       <c r="F7">
-        <v>0.8378378378378378</v>
+        <v>0.83783783783783783</v>
       </c>
       <c r="G7">
-        <v>0.8108108108108109</v>
+        <v>0.81081081081081086</v>
       </c>
       <c r="H7">
-        <v>0.7837837837837838</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.7567567567567568</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2853,51 +2903,51 @@
         <v>0.7567567567567568</v>
       </c>
       <c r="C8">
-        <v>0.8918918918918919</v>
+        <v>0.89189189189189189</v>
       </c>
       <c r="D8">
-        <v>0.8378378378378378</v>
+        <v>0.83783783783783783</v>
       </c>
       <c r="E8">
         <v>0.7567567567567568</v>
       </c>
       <c r="F8">
-        <v>0.8108108108108109</v>
+        <v>0.81081081081081086</v>
       </c>
       <c r="G8">
-        <v>0.8108108108108109</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="H8">
-        <v>0.8108108108108109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.86486486486486491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C9">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D9">
-        <v>0.8888888888888888</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="E9">
-        <v>0.8055555555555556</v>
+        <v>0.80555555555555558</v>
       </c>
       <c r="F9">
-        <v>0.8611111111111112</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="G9">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="H9">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2905,7 +2955,7 @@
         <v>0.75</v>
       </c>
       <c r="C10">
-        <v>0.6944444444444444</v>
+        <v>0.69444444444444442</v>
       </c>
       <c r="D10">
         <v>0.75</v>
@@ -2917,18 +2967,18 @@
         <v>0.75</v>
       </c>
       <c r="G10">
-        <v>0.75</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="H10">
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.69444444444444442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7714285714285715</v>
+        <v>0.77142857142857146</v>
       </c>
       <c r="C11">
         <v>0.8</v>
@@ -2940,39 +2990,39 @@
         <v>0.8</v>
       </c>
       <c r="F11">
-        <v>0.7714285714285715</v>
+        <v>0.77142857142857146</v>
       </c>
       <c r="G11">
-        <v>0.7714285714285715</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="H11">
-        <v>0.7142857142857143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.74285714285714288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7701845830793199</v>
+        <v>0.77018458307931992</v>
       </c>
       <c r="C12">
-        <v>0.772962699541647</v>
+        <v>0.77296269954164698</v>
       </c>
       <c r="D12">
-        <v>0.7842871819187608</v>
+        <v>0.78428718191876079</v>
       </c>
       <c r="E12">
-        <v>0.7888983720562668</v>
+        <v>0.78889837205626678</v>
       </c>
       <c r="F12">
-        <v>0.7888940820519769</v>
+        <v>0.78889408205197686</v>
       </c>
       <c r="G12">
-        <v>0.748989703989704</v>
+        <v>0.77295016821332607</v>
       </c>
       <c r="H12">
-        <v>0.7266087516087516</v>
+        <v>0.74028460791618689</v>
       </c>
     </row>
   </sheetData>
@@ -2981,14 +3031,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3011,59 +3061,59 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7222222222222222</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="C2">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D2">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E2">
-        <v>0.6388888888888888</v>
+        <v>0.63888888888888884</v>
       </c>
       <c r="F2">
-        <v>0.6944444444444444</v>
+        <v>0.69444444444444442</v>
       </c>
       <c r="G2">
-        <v>0.7222222222222222</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H2">
-        <v>0.6388888888888888</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7941176470588235</v>
+        <v>0.79411764705882348</v>
       </c>
       <c r="C3">
         <v>0.8529411764705882</v>
       </c>
       <c r="D3">
-        <v>0.6764705882352942</v>
+        <v>0.67647058823529416</v>
       </c>
       <c r="E3">
-        <v>0.6764705882352942</v>
+        <v>0.67647058823529416</v>
       </c>
       <c r="F3">
-        <v>0.6764705882352942</v>
+        <v>0.67647058823529416</v>
       </c>
       <c r="G3">
-        <v>0.7647058823529411</v>
+        <v>0.73529411764705888</v>
       </c>
       <c r="H3">
         <v>0.6470588235294118</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3071,230 +3121,230 @@
         <v>0.8529411764705882</v>
       </c>
       <c r="C4">
-        <v>0.7941176470588235</v>
+        <v>0.79411764705882348</v>
       </c>
       <c r="D4">
-        <v>0.8235294117647058</v>
+        <v>0.82352941176470584</v>
       </c>
       <c r="E4">
-        <v>0.7647058823529411</v>
+        <v>0.76470588235294112</v>
       </c>
       <c r="F4">
-        <v>0.7352941176470589</v>
+        <v>0.73529411764705888</v>
       </c>
       <c r="G4">
-        <v>0.7941176470588235</v>
+        <v>0.76470588235294112</v>
       </c>
       <c r="H4">
-        <v>0.8235294117647058</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.82352941176470584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.696969696969697</v>
+        <v>0.69696969696969702</v>
       </c>
       <c r="C5">
-        <v>0.696969696969697</v>
+        <v>0.69696969696969702</v>
       </c>
       <c r="D5">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E5">
-        <v>0.6363636363636364</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="F5">
-        <v>0.6363636363636364</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="G5">
-        <v>0.696969696969697</v>
+        <v>0.69696969696969702</v>
       </c>
       <c r="H5">
-        <v>0.7272727272727273</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>0.72727272727272729</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7575757575757576</v>
+        <v>0.75757575757575757</v>
       </c>
       <c r="C6">
-        <v>0.696969696969697</v>
+        <v>0.69696969696969702</v>
       </c>
       <c r="D6">
-        <v>0.8787878787878788</v>
+        <v>0.87878787878787878</v>
       </c>
       <c r="E6">
-        <v>0.7575757575757576</v>
+        <v>0.75757575757575757</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G6">
-        <v>0.7575757575757576</v>
+        <v>0.78787878787878785</v>
       </c>
       <c r="H6">
-        <v>0.696969696969697</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.75757575757575757</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7575757575757576</v>
+        <v>0.75757575757575757</v>
       </c>
       <c r="C7">
-        <v>0.7272727272727273</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="D7">
-        <v>0.696969696969697</v>
+        <v>0.69696969696969702</v>
       </c>
       <c r="E7">
-        <v>0.4848484848484849</v>
+        <v>0.48484848484848492</v>
       </c>
       <c r="F7">
-        <v>0.8787878787878788</v>
+        <v>0.87878787878787878</v>
       </c>
       <c r="G7">
-        <v>0.7575757575757576</v>
+        <v>0.75757575757575757</v>
       </c>
       <c r="H7">
-        <v>0.7878787878787878</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.78787878787878785</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7575757575757576</v>
+        <v>0.75757575757575757</v>
       </c>
       <c r="C8">
-        <v>0.7878787878787878</v>
+        <v>0.78787878787878785</v>
       </c>
       <c r="D8">
-        <v>0.8484848484848485</v>
+        <v>0.84848484848484851</v>
       </c>
       <c r="E8">
-        <v>0.7575757575757576</v>
+        <v>0.75757575757575757</v>
       </c>
       <c r="F8">
-        <v>0.7272727272727273</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="G8">
-        <v>0.8181818181818182</v>
+        <v>0.78787878787878785</v>
       </c>
       <c r="H8">
-        <v>0.7878787878787878</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.78787878787878785</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8484848484848485</v>
+        <v>0.84848484848484851</v>
       </c>
       <c r="C9">
-        <v>0.8181818181818182</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="D9">
-        <v>0.8787878787878788</v>
+        <v>0.87878787878787878</v>
       </c>
       <c r="E9">
-        <v>0.8484848484848485</v>
+        <v>0.84848484848484851</v>
       </c>
       <c r="F9">
-        <v>0.7575757575757576</v>
+        <v>0.75757575757575757</v>
       </c>
       <c r="G9">
-        <v>0.7272727272727273</v>
+        <v>0.75757575757575757</v>
       </c>
       <c r="H9">
-        <v>0.7575757575757576</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.69696969696969702</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7575757575757576</v>
+        <v>0.75757575757575757</v>
       </c>
       <c r="C10">
-        <v>0.7878787878787878</v>
+        <v>0.78787878787878785</v>
       </c>
       <c r="D10">
-        <v>0.7878787878787878</v>
+        <v>0.78787878787878785</v>
       </c>
       <c r="E10">
-        <v>0.7272727272727273</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="F10">
-        <v>0.696969696969697</v>
+        <v>0.69696969696969702</v>
       </c>
       <c r="G10">
-        <v>0.696969696969697</v>
+        <v>0.78787878787878785</v>
       </c>
       <c r="H10">
-        <v>0.7272727272727273</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.72727272727272729</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7575757575757576</v>
+        <v>0.75757575757575757</v>
       </c>
       <c r="C11">
-        <v>0.7575757575757576</v>
+        <v>0.75757575757575757</v>
       </c>
       <c r="D11">
-        <v>0.7575757575757576</v>
+        <v>0.75757575757575757</v>
       </c>
       <c r="E11">
         <v>0.5757575757575758</v>
       </c>
       <c r="F11">
-        <v>0.6060606060606061</v>
+        <v>0.60606060606060608</v>
       </c>
       <c r="G11">
-        <v>0.7272727272727273</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="H11">
-        <v>0.7575757575757576</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.72727272727272729</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7702614379084968</v>
+        <v>0.77026143790849677</v>
       </c>
       <c r="C12">
-        <v>0.7586452762923351</v>
+        <v>0.75864527629233514</v>
       </c>
       <c r="D12">
         <v>0.7681818181818183</v>
       </c>
       <c r="E12">
-        <v>0.6867944147355913</v>
+        <v>0.68679441473559133</v>
       </c>
       <c r="F12">
-        <v>0.7075906120023767</v>
+        <v>0.70759061200237672</v>
       </c>
       <c r="G12">
-        <v>0.746286393345217</v>
+        <v>0.74696969696969695</v>
       </c>
       <c r="H12">
-        <v>0.735190136660725</v>
+        <v>0.73493761140819969</v>
       </c>
     </row>
   </sheetData>
@@ -3303,14 +3353,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3333,90 +3383,90 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7368421052631579</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="C2">
-        <v>0.7105263157894737</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="D2">
-        <v>0.6578947368421053</v>
+        <v>0.65789473684210531</v>
       </c>
       <c r="E2">
-        <v>0.7631578947368421</v>
+        <v>0.76315789473684215</v>
       </c>
       <c r="F2">
-        <v>0.7105263157894737</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="G2">
-        <v>0.7631578947368421</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="H2">
-        <v>0.5789473684210527</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.68421052631578949</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7631578947368421</v>
+        <v>0.76315789473684215</v>
       </c>
       <c r="C3">
-        <v>0.7368421052631579</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="D3">
-        <v>0.6842105263157895</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="E3">
-        <v>0.8421052631578947</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="F3">
-        <v>0.7368421052631579</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="G3">
-        <v>0.7105263157894737</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="H3">
-        <v>0.5789473684210527</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7631578947368421</v>
+        <v>0.76315789473684215</v>
       </c>
       <c r="C4">
-        <v>0.6578947368421053</v>
+        <v>0.65789473684210531</v>
       </c>
       <c r="D4">
-        <v>0.6842105263157895</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="E4">
-        <v>0.7105263157894737</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="F4">
-        <v>0.7368421052631579</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="G4">
-        <v>0.8157894736842105</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="H4">
-        <v>0.6578947368421053</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.68421052631578949</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7027027027027027</v>
+        <v>0.70270270270270274</v>
       </c>
       <c r="C5">
         <v>0.6216216216216216</v>
@@ -3425,198 +3475,198 @@
         <v>0.7567567567567568</v>
       </c>
       <c r="E5">
-        <v>0.7297297297297297</v>
+        <v>0.72972972972972971</v>
       </c>
       <c r="F5">
-        <v>0.7027027027027027</v>
+        <v>0.70270270270270274</v>
       </c>
       <c r="G5">
-        <v>0.7027027027027027</v>
+        <v>0.70270270270270274</v>
       </c>
       <c r="H5">
-        <v>0.6486486486486487</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>0.64864864864864868</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8378378378378378</v>
+        <v>0.83783783783783783</v>
       </c>
       <c r="C6">
-        <v>0.918918918918919</v>
+        <v>0.91891891891891897</v>
       </c>
       <c r="D6">
-        <v>0.918918918918919</v>
+        <v>0.91891891891891897</v>
       </c>
       <c r="E6">
-        <v>0.8378378378378378</v>
+        <v>0.83783783783783783</v>
       </c>
       <c r="F6">
-        <v>0.8648648648648649</v>
+        <v>0.86486486486486491</v>
       </c>
       <c r="G6">
-        <v>0.8378378378378378</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="H6">
         <v>0.7567567567567568</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8648648648648649</v>
+        <v>0.86486486486486491</v>
       </c>
       <c r="C7">
-        <v>0.7027027027027027</v>
+        <v>0.70270270270270274</v>
       </c>
       <c r="D7">
         <v>0.7567567567567568</v>
       </c>
       <c r="E7">
-        <v>0.8378378378378378</v>
+        <v>0.83783783783783783</v>
       </c>
       <c r="F7">
-        <v>0.8378378378378378</v>
+        <v>0.83783783783783783</v>
       </c>
       <c r="G7">
-        <v>0.7027027027027027</v>
+        <v>0.70270270270270274</v>
       </c>
       <c r="H7">
-        <v>0.6756756756756757</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.67567567567567566</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7837837837837838</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="C8">
         <v>0.7567567567567568</v>
       </c>
       <c r="D8">
-        <v>0.7837837837837838</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="E8">
-        <v>0.7297297297297297</v>
+        <v>0.72972972972972971</v>
       </c>
       <c r="F8">
-        <v>0.7837837837837838</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="G8">
-        <v>0.7837837837837838</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="H8">
-        <v>0.7297297297297297</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.72972972972972971</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C9">
-        <v>0.8055555555555556</v>
+        <v>0.80555555555555558</v>
       </c>
       <c r="D9">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E9">
-        <v>0.8055555555555556</v>
+        <v>0.80555555555555558</v>
       </c>
       <c r="F9">
-        <v>0.8888888888888888</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="G9">
-        <v>0.8611111111111112</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="H9">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.80555555555555558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7777777777777778</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="C10">
-        <v>0.7777777777777778</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="D10">
-        <v>0.8611111111111112</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="E10">
-        <v>0.8055555555555556</v>
+        <v>0.80555555555555558</v>
       </c>
       <c r="F10">
-        <v>0.7777777777777778</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="G10">
-        <v>0.75</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="H10">
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8285714285714286</v>
+        <v>0.82857142857142863</v>
       </c>
       <c r="C11">
         <v>0.7142857142857143</v>
       </c>
       <c r="D11">
-        <v>0.8285714285714286</v>
+        <v>0.82857142857142863</v>
       </c>
       <c r="E11">
         <v>0.7142857142857143</v>
       </c>
       <c r="F11">
-        <v>0.7428571428571429</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="G11">
-        <v>0.7428571428571429</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="H11">
-        <v>0.6285714285714286</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.65714285714285714</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7892029623608571</v>
+        <v>0.78920296236085707</v>
       </c>
       <c r="C12">
-        <v>0.7402882205513784</v>
+        <v>0.74028822055137844</v>
       </c>
       <c r="D12">
-        <v>0.7765547878705774</v>
+        <v>0.77655478787057741</v>
       </c>
       <c r="E12">
-        <v>0.7776321434216171</v>
+        <v>0.77763214342161713</v>
       </c>
       <c r="F12">
-        <v>0.7782923525028788</v>
+        <v>0.77829235250287876</v>
       </c>
       <c r="G12">
-        <v>0.7670468965205808</v>
+        <v>0.74300311589785273</v>
       </c>
       <c r="H12">
-        <v>0.6838505046399783</v>
+        <v>0.69971934340355391</v>
       </c>
     </row>
   </sheetData>
@@ -3625,14 +3675,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3655,85 +3705,85 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7105263157894737</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="C2">
-        <v>0.6842105263157895</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="D2">
-        <v>0.7368421052631579</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="E2">
-        <v>0.6842105263157895</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="F2">
-        <v>0.7631578947368421</v>
+        <v>0.76315789473684215</v>
       </c>
       <c r="G2">
-        <v>0.6842105263157895</v>
+        <v>0.78947368421052633</v>
       </c>
       <c r="H2">
-        <v>0.6578947368421053</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.65789473684210531</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7894736842105263</v>
+        <v>0.78947368421052633</v>
       </c>
       <c r="C3">
-        <v>0.7105263157894737</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="D3">
-        <v>0.6578947368421053</v>
+        <v>0.65789473684210531</v>
       </c>
       <c r="E3">
-        <v>0.6578947368421053</v>
+        <v>0.65789473684210531</v>
       </c>
       <c r="F3">
-        <v>0.7368421052631579</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="G3">
-        <v>0.6578947368421053</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="H3">
-        <v>0.7105263157894737</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>0.63157894736842102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8157894736842105</v>
+        <v>0.81578947368421051</v>
       </c>
       <c r="C4">
-        <v>0.7368421052631579</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="D4">
-        <v>0.8421052631578947</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="E4">
-        <v>0.6842105263157895</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="F4">
-        <v>0.7631578947368421</v>
+        <v>0.76315789473684215</v>
       </c>
       <c r="G4">
-        <v>0.7105263157894737</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="H4">
-        <v>0.6842105263157895</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.63157894736842102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3741,204 +3791,204 @@
         <v>0.7567567567567568</v>
       </c>
       <c r="C5">
-        <v>0.7297297297297297</v>
+        <v>0.72972972972972971</v>
       </c>
       <c r="D5">
-        <v>0.7837837837837838</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="E5">
         <v>0.7567567567567568</v>
       </c>
       <c r="F5">
-        <v>0.7027027027027027</v>
+        <v>0.70270270270270274</v>
       </c>
       <c r="G5">
-        <v>0.7297297297297297</v>
+        <v>0.72972972972972971</v>
       </c>
       <c r="H5">
-        <v>0.7567567567567568</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>0.72972972972972971</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8918918918918919</v>
+        <v>0.89189189189189189</v>
       </c>
       <c r="C6">
         <v>0.7567567567567568</v>
       </c>
       <c r="D6">
-        <v>0.918918918918919</v>
+        <v>0.91891891891891897</v>
       </c>
       <c r="E6">
-        <v>0.8108108108108109</v>
+        <v>0.81081081081081086</v>
       </c>
       <c r="F6">
-        <v>0.8378378378378378</v>
+        <v>0.83783783783783783</v>
       </c>
       <c r="G6">
-        <v>0.8108108108108109</v>
+        <v>0.89189189189189189</v>
       </c>
       <c r="H6">
-        <v>0.8918918918918919</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.89189189189189189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8108108108108109</v>
+        <v>0.81081081081081086</v>
       </c>
       <c r="C7">
-        <v>0.6756756756756757</v>
+        <v>0.67567567567567566</v>
       </c>
       <c r="D7">
-        <v>0.7837837837837838</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="E7">
-        <v>0.7837837837837838</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="F7">
-        <v>0.8378378378378378</v>
+        <v>0.83783783783783783</v>
       </c>
       <c r="G7">
-        <v>0.6756756756756757</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="H7">
-        <v>0.7297297297297297</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.72972972972972971</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8108108108108109</v>
+        <v>0.81081081081081086</v>
       </c>
       <c r="C8">
-        <v>0.7837837837837838</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="D8">
-        <v>0.8378378378378378</v>
+        <v>0.83783783783783783</v>
       </c>
       <c r="E8">
-        <v>0.7837837837837838</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="F8">
-        <v>0.7297297297297297</v>
+        <v>0.72972972972972971</v>
       </c>
       <c r="G8">
-        <v>0.8108108108108109</v>
+        <v>0.81081081081081086</v>
       </c>
       <c r="H8">
-        <v>0.7837837837837838</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.78378378378378377</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8611111111111112</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="C9">
         <v>0.75</v>
       </c>
       <c r="D9">
-        <v>0.9166666666666666</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E9">
-        <v>0.8611111111111112</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="F9">
-        <v>0.8888888888888888</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="G9">
-        <v>0.8055555555555556</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="H9">
-        <v>0.8611111111111112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C10">
-        <v>0.7222222222222222</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="D10">
-        <v>0.8611111111111112</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="E10">
-        <v>0.8055555555555556</v>
+        <v>0.80555555555555558</v>
       </c>
       <c r="F10">
-        <v>0.7777777777777778</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="G10">
-        <v>0.8333333333333334</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="H10">
-        <v>0.6944444444444444</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.72222222222222221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8857142857142857</v>
+        <v>0.88571428571428568</v>
       </c>
       <c r="C11">
-        <v>0.7428571428571429</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="D11">
-        <v>0.9142857142857143</v>
+        <v>0.91428571428571426</v>
       </c>
       <c r="E11">
-        <v>0.7428571428571429</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="F11">
-        <v>0.7428571428571429</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="G11">
-        <v>0.9142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H11">
-        <v>0.7714285714285715</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.77142857142857146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8166218474113209</v>
+        <v>0.81662184741132093</v>
       </c>
       <c r="C12">
-        <v>0.7292604258393732</v>
+        <v>0.72926042583937323</v>
       </c>
       <c r="D12">
-        <v>0.8253229921650975</v>
+        <v>0.82532299216509752</v>
       </c>
       <c r="E12">
-        <v>0.7570974734132629</v>
+        <v>0.75709747341326294</v>
       </c>
       <c r="F12">
-        <v>0.778078981236876</v>
+        <v>0.77807898123687602</v>
       </c>
       <c r="G12">
-        <v>0.7632833209148998</v>
+        <v>0.79206010521799985</v>
       </c>
       <c r="H12">
-        <v>0.7541777868093658</v>
+        <v>0.73831718936982094</v>
       </c>
     </row>
   </sheetData>
@@ -3947,14 +3997,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3977,215 +4027,215 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7631578947368421</v>
+        <v>0.76315789473684215</v>
       </c>
       <c r="C2">
-        <v>0.7105263157894737</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="D2">
-        <v>0.7631578947368421</v>
+        <v>0.76315789473684215</v>
       </c>
       <c r="E2">
-        <v>0.7368421052631579</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="F2">
-        <v>0.7105263157894737</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="G2">
-        <v>0.631578947368421</v>
+        <v>0.60526315789473684</v>
       </c>
       <c r="H2">
-        <v>0.6842105263157895</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.63157894736842102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7894736842105263</v>
+        <v>0.78947368421052633</v>
       </c>
       <c r="C3">
-        <v>0.7894736842105263</v>
+        <v>0.78947368421052633</v>
       </c>
       <c r="D3">
-        <v>0.7631578947368421</v>
+        <v>0.76315789473684215</v>
       </c>
       <c r="E3">
-        <v>0.7368421052631579</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="F3">
-        <v>0.7368421052631579</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="G3">
-        <v>0.7631578947368421</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="H3">
-        <v>0.7631578947368421</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7105263157894737</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="C4">
-        <v>0.7105263157894737</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="D4">
-        <v>0.7105263157894737</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="E4">
-        <v>0.7105263157894737</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="F4">
-        <v>0.7368421052631579</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="G4">
-        <v>0.7368421052631579</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="H4">
-        <v>0.7631578947368421</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.76315789473684215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6756756756756757</v>
+        <v>0.67567567567567566</v>
       </c>
       <c r="C5">
-        <v>0.6756756756756757</v>
+        <v>0.67567567567567566</v>
       </c>
       <c r="D5">
         <v>0.7567567567567568</v>
       </c>
       <c r="E5">
-        <v>0.6486486486486487</v>
+        <v>0.64864864864864868</v>
       </c>
       <c r="F5">
-        <v>0.7027027027027027</v>
+        <v>0.70270270270270274</v>
       </c>
       <c r="G5">
-        <v>0.7027027027027027</v>
+        <v>0.70270270270270274</v>
       </c>
       <c r="H5">
-        <v>0.6486486486486487</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>0.64864864864864868</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8108108108108109</v>
+        <v>0.81081081081081086</v>
       </c>
       <c r="C6">
-        <v>0.8378378378378378</v>
+        <v>0.83783783783783783</v>
       </c>
       <c r="D6">
-        <v>0.8378378378378378</v>
+        <v>0.83783783783783783</v>
       </c>
       <c r="E6">
-        <v>0.8648648648648649</v>
+        <v>0.86486486486486491</v>
       </c>
       <c r="F6">
-        <v>0.8648648648648649</v>
+        <v>0.86486486486486491</v>
       </c>
       <c r="G6">
         <v>0.7567567567567568</v>
       </c>
       <c r="H6">
-        <v>0.8378378378378378</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.83783783783783783</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8378378378378378</v>
+        <v>0.83783783783783783</v>
       </c>
       <c r="C7">
-        <v>0.7837837837837838</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="D7">
-        <v>0.8648648648648649</v>
+        <v>0.86486486486486491</v>
       </c>
       <c r="E7">
-        <v>0.8648648648648649</v>
+        <v>0.86486486486486491</v>
       </c>
       <c r="F7">
-        <v>0.8378378378378378</v>
+        <v>0.83783783783783783</v>
       </c>
       <c r="G7">
-        <v>0.8108108108108109</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="H7">
-        <v>0.7837837837837838</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.7567567567567568</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7837837837837838</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="C8">
-        <v>0.7837837837837838</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="D8">
-        <v>0.8108108108108109</v>
+        <v>0.81081081081081086</v>
       </c>
       <c r="E8">
-        <v>0.7837837837837838</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="F8">
-        <v>0.8108108108108109</v>
+        <v>0.81081081081081086</v>
       </c>
       <c r="G8">
-        <v>0.7567567567567568</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="H8">
         <v>0.7567567567567568</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8611111111111112</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="C9">
-        <v>0.8611111111111112</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="D9">
-        <v>0.8611111111111112</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="E9">
-        <v>0.8611111111111112</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="F9">
-        <v>0.8888888888888888</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="G9">
-        <v>0.7777777777777778</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="H9">
-        <v>0.8055555555555556</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.80555555555555558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4193,74 +4243,74 @@
         <v>0.75</v>
       </c>
       <c r="C10">
-        <v>0.8055555555555556</v>
+        <v>0.80555555555555558</v>
       </c>
       <c r="D10">
-        <v>0.7777777777777778</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="E10">
-        <v>0.7222222222222222</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="F10">
         <v>0.75</v>
       </c>
       <c r="G10">
-        <v>0.8055555555555556</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="H10">
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7428571428571429</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="C11">
-        <v>0.8857142857142857</v>
+        <v>0.88571428571428568</v>
       </c>
       <c r="D11">
-        <v>0.8285714285714286</v>
+        <v>0.82857142857142863</v>
       </c>
       <c r="E11">
-        <v>0.6857142857142857</v>
+        <v>0.68571428571428572</v>
       </c>
       <c r="F11">
-        <v>0.6857142857142857</v>
+        <v>0.68571428571428572</v>
       </c>
       <c r="G11">
-        <v>0.7714285714285715</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H11">
-        <v>0.6857142857142857</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.68571428571428572</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7725234256813205</v>
+        <v>0.77252342568132049</v>
       </c>
       <c r="C12">
-        <v>0.7843988349251507</v>
+        <v>0.78439883492515072</v>
       </c>
       <c r="D12">
-        <v>0.7974572692993745</v>
+        <v>0.79745726929937455</v>
       </c>
       <c r="E12">
-        <v>0.7615420307525571</v>
+        <v>0.76154203075255711</v>
       </c>
       <c r="F12">
-        <v>0.772502991713518</v>
+        <v>0.77250299171351799</v>
       </c>
       <c r="G12">
-        <v>0.7513367879157353</v>
+        <v>0.75486633249791146</v>
       </c>
       <c r="H12">
-        <v>0.7478823184086342</v>
+        <v>0.73728487886382621</v>
       </c>
     </row>
   </sheetData>
@@ -4269,14 +4319,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4299,93 +4349,93 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7837837837837838</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="C2">
-        <v>0.8108108108108109</v>
+        <v>0.81081081081081086</v>
       </c>
       <c r="D2">
-        <v>0.7297297297297297</v>
+        <v>0.72972972972972971</v>
       </c>
       <c r="E2">
-        <v>0.7297297297297297</v>
+        <v>0.72972972972972971</v>
       </c>
       <c r="F2">
-        <v>0.7297297297297297</v>
+        <v>0.72972972972972971</v>
       </c>
       <c r="G2">
-        <v>0.7027027027027027</v>
+        <v>0.67567567567567566</v>
       </c>
       <c r="H2">
-        <v>0.7027027027027027</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.67567567567567566</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7837837837837838</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="C3">
-        <v>0.8108108108108109</v>
+        <v>0.81081081081081086</v>
       </c>
       <c r="D3">
-        <v>0.8108108108108109</v>
+        <v>0.81081081081081086</v>
       </c>
       <c r="E3">
-        <v>0.7027027027027027</v>
+        <v>0.70270270270270274</v>
       </c>
       <c r="F3">
-        <v>0.7837837837837838</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="G3">
-        <v>0.7837837837837838</v>
+        <v>0.83783783783783783</v>
       </c>
       <c r="H3">
-        <v>0.7567567567567568</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>0.72972972972972971</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7297297297297297</v>
+        <v>0.72972972972972971</v>
       </c>
       <c r="C4">
-        <v>0.7837837837837838</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="D4">
         <v>0.7567567567567568</v>
       </c>
       <c r="E4">
-        <v>0.7837837837837838</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="F4">
-        <v>0.7027027027027027</v>
+        <v>0.70270270270270274</v>
       </c>
       <c r="G4">
-        <v>0.7837837837837838</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="H4">
-        <v>0.7297297297297297</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.7567567567567568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6944444444444444</v>
+        <v>0.69444444444444442</v>
       </c>
       <c r="C5">
-        <v>0.6944444444444444</v>
+        <v>0.69444444444444442</v>
       </c>
       <c r="D5">
         <v>0.75</v>
@@ -4394,195 +4444,195 @@
         <v>0.75</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G5">
-        <v>0.7777777777777778</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="H5">
-        <v>0.7777777777777778</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>0.72222222222222221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8611111111111112</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="C6">
-        <v>0.8611111111111112</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="D6">
-        <v>0.8611111111111112</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="E6">
-        <v>0.8055555555555556</v>
+        <v>0.80555555555555558</v>
       </c>
       <c r="F6">
-        <v>0.8611111111111112</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="G6">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H6">
-        <v>0.8055555555555556</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C7">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D7">
-        <v>0.8611111111111112</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="E7">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F7">
-        <v>0.8611111111111112</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="G7">
-        <v>0.8611111111111112</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="H7">
-        <v>0.7777777777777778</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7222222222222222</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="C8">
-        <v>0.7222222222222222</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="D8">
-        <v>0.6944444444444444</v>
+        <v>0.69444444444444442</v>
       </c>
       <c r="E8">
-        <v>0.7222222222222222</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="F8">
-        <v>0.7777777777777778</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="G8">
-        <v>0.7222222222222222</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="H8">
-        <v>0.6944444444444444</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8285714285714286</v>
+        <v>0.82857142857142863</v>
       </c>
       <c r="C9">
         <v>0.8</v>
       </c>
       <c r="D9">
-        <v>0.8285714285714286</v>
+        <v>0.82857142857142863</v>
       </c>
       <c r="E9">
         <v>0.8</v>
       </c>
       <c r="F9">
-        <v>0.8857142857142857</v>
+        <v>0.88571428571428568</v>
       </c>
       <c r="G9">
-        <v>0.8285714285714286</v>
+        <v>0.77142857142857146</v>
       </c>
       <c r="H9">
-        <v>0.7714285714285715</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.77142857142857146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6285714285714286</v>
+        <v>0.62857142857142856</v>
       </c>
       <c r="C10">
-        <v>0.6571428571428571</v>
+        <v>0.65714285714285714</v>
       </c>
       <c r="D10">
-        <v>0.6571428571428571</v>
+        <v>0.65714285714285714</v>
       </c>
       <c r="E10">
         <v>0.6</v>
       </c>
       <c r="F10">
-        <v>0.7428571428571429</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="G10">
-        <v>0.6571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H10">
-        <v>0.6571428571428571</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.65714285714285714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7058823529411765</v>
+        <v>0.70588235294117652</v>
       </c>
       <c r="C11">
-        <v>0.7352941176470589</v>
+        <v>0.73529411764705888</v>
       </c>
       <c r="D11">
-        <v>0.7352941176470589</v>
+        <v>0.73529411764705888</v>
       </c>
       <c r="E11">
-        <v>0.6176470588235294</v>
+        <v>0.61764705882352944</v>
       </c>
       <c r="F11">
-        <v>0.6764705882352942</v>
+        <v>0.67647058823529416</v>
       </c>
       <c r="G11">
-        <v>0.6176470588235294</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="H11">
-        <v>0.6764705882352942</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.67647058823529416</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7571433618492441</v>
+        <v>0.75714336184924413</v>
       </c>
       <c r="C12">
-        <v>0.7708953491306433</v>
+        <v>0.77089534913064328</v>
       </c>
       <c r="D12">
         <v>0.7684972367325309</v>
       </c>
       <c r="E12">
-        <v>0.7344974386150855</v>
+        <v>0.73449743861508554</v>
       </c>
       <c r="F12">
-        <v>0.7687924899689605</v>
+        <v>0.76879248996896055</v>
       </c>
       <c r="G12">
-        <v>0.7484742725919198</v>
+        <v>0.75134037398743292</v>
       </c>
       <c r="H12">
-        <v>0.7349786761551469</v>
+        <v>0.72116486234133304</v>
       </c>
     </row>
   </sheetData>
@@ -4591,14 +4641,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4621,7 +4671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4641,13 +4691,13 @@
         <v>0.75</v>
       </c>
       <c r="G2">
-        <v>0.6875</v>
+        <v>0.65625</v>
       </c>
       <c r="H2">
-        <v>0.5625</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4667,195 +4717,195 @@
         <v>0.84375</v>
       </c>
       <c r="G3">
-        <v>0.8125</v>
+        <v>0.78125</v>
       </c>
       <c r="H3">
-        <v>0.65625</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7096774193548387</v>
+        <v>0.70967741935483875</v>
       </c>
       <c r="C4">
-        <v>0.5483870967741935</v>
+        <v>0.54838709677419351</v>
       </c>
       <c r="D4">
-        <v>0.6774193548387096</v>
+        <v>0.67741935483870963</v>
       </c>
       <c r="E4">
-        <v>0.6129032258064516</v>
+        <v>0.61290322580645162</v>
       </c>
       <c r="F4">
-        <v>0.7096774193548387</v>
+        <v>0.70967741935483875</v>
       </c>
       <c r="G4">
-        <v>0.8387096774193549</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="H4">
-        <v>0.7419354838709677</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.77419354838709675</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6451612903225806</v>
+        <v>0.64516129032258063</v>
       </c>
       <c r="C5">
         <v>0.4838709677419355</v>
       </c>
       <c r="D5">
-        <v>0.6774193548387096</v>
+        <v>0.67741935483870963</v>
       </c>
       <c r="E5">
-        <v>0.6129032258064516</v>
+        <v>0.61290322580645162</v>
       </c>
       <c r="F5">
-        <v>0.6774193548387096</v>
+        <v>0.67741935483870963</v>
       </c>
       <c r="G5">
-        <v>0.6451612903225806</v>
+        <v>0.64516129032258063</v>
       </c>
       <c r="H5">
-        <v>0.6451612903225806</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>0.67741935483870963</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8387096774193549</v>
+        <v>0.83870967741935487</v>
       </c>
       <c r="C6">
-        <v>0.5483870967741935</v>
+        <v>0.54838709677419351</v>
       </c>
       <c r="D6">
-        <v>0.8709677419354839</v>
+        <v>0.87096774193548387</v>
       </c>
       <c r="E6">
-        <v>0.8064516129032258</v>
+        <v>0.80645161290322576</v>
       </c>
       <c r="F6">
-        <v>0.8387096774193549</v>
+        <v>0.83870967741935487</v>
       </c>
       <c r="G6">
-        <v>0.7741935483870968</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="H6">
-        <v>0.7741935483870968</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.80645161290322576</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8064516129032258</v>
+        <v>0.80645161290322576</v>
       </c>
       <c r="C7">
-        <v>0.4516129032258064</v>
+        <v>0.45161290322580638</v>
       </c>
       <c r="D7">
-        <v>0.8064516129032258</v>
+        <v>0.80645161290322576</v>
       </c>
       <c r="E7">
-        <v>0.7096774193548387</v>
+        <v>0.70967741935483875</v>
       </c>
       <c r="F7">
-        <v>0.7096774193548387</v>
+        <v>0.70967741935483875</v>
       </c>
       <c r="G7">
-        <v>0.7096774193548387</v>
+        <v>0.70967741935483875</v>
       </c>
       <c r="H7">
-        <v>0.8064516129032258</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.70967741935483875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8064516129032258</v>
+        <v>0.80645161290322576</v>
       </c>
       <c r="C8">
-        <v>0.6451612903225806</v>
+        <v>0.64516129032258063</v>
       </c>
       <c r="D8">
-        <v>0.7419354838709677</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="E8">
-        <v>0.7096774193548387</v>
+        <v>0.70967741935483875</v>
       </c>
       <c r="F8">
-        <v>0.7419354838709677</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="G8">
-        <v>0.7419354838709677</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="H8">
-        <v>0.6774193548387096</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.70967741935483875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7741935483870968</v>
+        <v>0.77419354838709675</v>
       </c>
       <c r="C9">
-        <v>0.6451612903225806</v>
+        <v>0.64516129032258063</v>
       </c>
       <c r="D9">
-        <v>0.8064516129032258</v>
+        <v>0.80645161290322576</v>
       </c>
       <c r="E9">
-        <v>0.7419354838709677</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="F9">
-        <v>0.7419354838709677</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="G9">
-        <v>0.7096774193548387</v>
+        <v>0.64516129032258063</v>
       </c>
       <c r="H9">
-        <v>0.7096774193548387</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.70967741935483875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6774193548387096</v>
+        <v>0.67741935483870963</v>
       </c>
       <c r="C10">
-        <v>0.6129032258064516</v>
+        <v>0.61290322580645162</v>
       </c>
       <c r="D10">
-        <v>0.6451612903225806</v>
+        <v>0.64516129032258063</v>
       </c>
       <c r="E10">
-        <v>0.7096774193548387</v>
+        <v>0.70967741935483875</v>
       </c>
       <c r="F10">
-        <v>0.6451612903225806</v>
+        <v>0.64516129032258063</v>
       </c>
       <c r="G10">
-        <v>0.7096774193548387</v>
+        <v>0.67741935483870963</v>
       </c>
       <c r="H10">
-        <v>0.6451612903225806</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.70967741935483875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4863,48 +4913,48 @@
         <v>0.7</v>
       </c>
       <c r="C11">
-        <v>0.7333333333333333</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="D11">
-        <v>0.7666666666666667</v>
+        <v>0.76666666666666672</v>
       </c>
       <c r="E11">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F11">
         <v>0.7</v>
       </c>
       <c r="G11">
-        <v>0.7</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="H11">
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7426814516129032</v>
+        <v>0.74268145161290322</v>
       </c>
       <c r="C12">
-        <v>0.5731317204301075</v>
+        <v>0.57313172043010752</v>
       </c>
       <c r="D12">
-        <v>0.749247311827957</v>
+        <v>0.74924731182795701</v>
       </c>
       <c r="E12">
-        <v>0.694489247311828</v>
+        <v>0.69448924731182804</v>
       </c>
       <c r="F12">
-        <v>0.7358266129032259</v>
+        <v>0.73582661290322593</v>
       </c>
       <c r="G12">
-        <v>0.7329032258064517</v>
+        <v>0.69740591397849472</v>
       </c>
       <c r="H12">
-        <v>0.6918750000000001</v>
+        <v>0.71405241935483876</v>
       </c>
     </row>
   </sheetData>
@@ -4913,14 +4963,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4943,163 +4993,163 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7368421052631579</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="C2">
-        <v>0.6578947368421053</v>
+        <v>0.65789473684210531</v>
       </c>
       <c r="D2">
-        <v>0.6578947368421053</v>
+        <v>0.65789473684210531</v>
       </c>
       <c r="E2">
-        <v>0.7368421052631579</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="F2">
-        <v>0.7894736842105263</v>
+        <v>0.78947368421052633</v>
       </c>
       <c r="G2">
-        <v>0.6052631578947368</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="H2">
-        <v>0.5789473684210527</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7368421052631579</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="C3">
-        <v>0.7105263157894737</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="D3">
-        <v>0.7105263157894737</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="E3">
-        <v>0.8157894736842105</v>
+        <v>0.81578947368421051</v>
       </c>
       <c r="F3">
-        <v>0.6842105263157895</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="G3">
-        <v>0.7631578947368421</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="H3">
-        <v>0.7105263157894737</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>0.76315789473684215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7105263157894737</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="C4">
-        <v>0.6842105263157895</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="D4">
-        <v>0.7368421052631579</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="E4">
-        <v>0.6052631578947368</v>
+        <v>0.60526315789473684</v>
       </c>
       <c r="F4">
-        <v>0.7368421052631579</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="G4">
-        <v>0.7105263157894737</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="H4">
-        <v>0.631578947368421</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.68421052631578949</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7027027027027027</v>
+        <v>0.70270270270270274</v>
       </c>
       <c r="C5">
-        <v>0.7297297297297297</v>
+        <v>0.72972972972972971</v>
       </c>
       <c r="D5">
         <v>0.7567567567567568</v>
       </c>
       <c r="E5">
-        <v>0.6756756756756757</v>
+        <v>0.67567567567567566</v>
       </c>
       <c r="F5">
-        <v>0.6756756756756757</v>
+        <v>0.67567567567567566</v>
       </c>
       <c r="G5">
-        <v>0.6756756756756757</v>
+        <v>0.67567567567567566</v>
       </c>
       <c r="H5">
-        <v>0.6486486486486487</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>0.67567567567567566</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8648648648648649</v>
+        <v>0.86486486486486491</v>
       </c>
       <c r="C6">
-        <v>0.8918918918918919</v>
+        <v>0.89189189189189189</v>
       </c>
       <c r="D6">
-        <v>0.8918918918918919</v>
+        <v>0.89189189189189189</v>
       </c>
       <c r="E6">
-        <v>0.8378378378378378</v>
+        <v>0.83783783783783783</v>
       </c>
       <c r="F6">
-        <v>0.8378378378378378</v>
+        <v>0.83783783783783783</v>
       </c>
       <c r="G6">
-        <v>0.8108108108108109</v>
+        <v>0.83783783783783783</v>
       </c>
       <c r="H6">
-        <v>0.8918918918918919</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.86486486486486491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8378378378378378</v>
+        <v>0.83783783783783783</v>
       </c>
       <c r="C7">
         <v>0.7567567567567568</v>
       </c>
       <c r="D7">
-        <v>0.8648648648648649</v>
+        <v>0.86486486486486491</v>
       </c>
       <c r="E7">
-        <v>0.8378378378378378</v>
+        <v>0.83783783783783783</v>
       </c>
       <c r="F7">
-        <v>0.8378378378378378</v>
+        <v>0.83783783783783783</v>
       </c>
       <c r="G7">
-        <v>0.7837837837837838</v>
+        <v>0.72972972972972971</v>
       </c>
       <c r="H7">
-        <v>0.7297297297297297</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.72972972972972971</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5107,77 +5157,77 @@
         <v>0.7567567567567568</v>
       </c>
       <c r="C8">
-        <v>0.8378378378378378</v>
+        <v>0.83783783783783783</v>
       </c>
       <c r="D8">
-        <v>0.7297297297297297</v>
+        <v>0.72972972972972971</v>
       </c>
       <c r="E8">
-        <v>0.7027027027027027</v>
+        <v>0.70270270270270274</v>
       </c>
       <c r="F8">
-        <v>0.7837837837837838</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="G8">
-        <v>0.8108108108108109</v>
+        <v>0.83783783783783783</v>
       </c>
       <c r="H8">
-        <v>0.8918918918918919</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.86486486486486491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8055555555555556</v>
+        <v>0.80555555555555558</v>
       </c>
       <c r="C9">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D9">
-        <v>0.7222222222222222</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="E9">
-        <v>0.8055555555555556</v>
+        <v>0.80555555555555558</v>
       </c>
       <c r="F9">
-        <v>0.8888888888888888</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="G9">
-        <v>0.75</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="H9">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.86111111111111116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7222222222222222</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="C10">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D10">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E10">
-        <v>0.7222222222222222</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="F10">
-        <v>0.7777777777777778</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="G10">
-        <v>0.6944444444444444</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="H10">
-        <v>0.6111111111111112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.63888888888888884</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5191,42 +5241,42 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="E11">
-        <v>0.8285714285714286</v>
+        <v>0.82857142857142863</v>
       </c>
       <c r="F11">
-        <v>0.7428571428571429</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="G11">
         <v>0.8</v>
       </c>
       <c r="H11">
-        <v>0.6857142857142857</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7674150466255729</v>
+        <v>0.76741504662557292</v>
       </c>
       <c r="C12">
-        <v>0.7649800176115965</v>
+        <v>0.76498001761159651</v>
       </c>
       <c r="D12">
-        <v>0.7761204813836391</v>
+        <v>0.77612048138363909</v>
       </c>
       <c r="E12">
-        <v>0.7568297997245366</v>
+        <v>0.75682979972453657</v>
       </c>
       <c r="F12">
-        <v>0.7755185260448417</v>
+        <v>0.77551852604484173</v>
       </c>
       <c r="G12">
-        <v>0.7404472893946579</v>
+        <v>0.74600284495021341</v>
       </c>
       <c r="H12">
-        <v>0.7213373523899839</v>
+        <v>0.74020524283682199</v>
       </c>
     </row>
   </sheetData>
